--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923557294858458</v>
+        <v>0.9923557294858439</v>
       </c>
       <c r="D2">
-        <v>1.012666600727022</v>
+        <v>1.01266660072702</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.009797607840632</v>
+        <v>1.009797607840631</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043399129783646</v>
+        <v>1.043399129783645</v>
       </c>
       <c r="J2">
-        <v>1.014767508337696</v>
+        <v>1.014767508337694</v>
       </c>
       <c r="K2">
-        <v>1.023952245723488</v>
+        <v>1.023952245723487</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.021122113316557</v>
+        <v>1.021122113316556</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992060054718295</v>
+        <v>0.9992060054718307</v>
       </c>
       <c r="D3">
-        <v>1.017772235515946</v>
+        <v>1.017772235515947</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016257581889936</v>
+        <v>1.016257581889937</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.045670146389209</v>
       </c>
       <c r="J3">
-        <v>1.019718339006587</v>
+        <v>1.019718339006588</v>
       </c>
       <c r="K3">
         <v>1.028182657266485</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.026686585507965</v>
+        <v>1.026686585507966</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003507646086277</v>
+        <v>1.003507646086275</v>
       </c>
       <c r="D4">
-        <v>1.020979994906626</v>
+        <v>1.020979994906625</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.02032019768984</v>
+        <v>1.020320197689839</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.047080840011932</v>
       </c>
       <c r="J4">
-        <v>1.022822049527707</v>
+        <v>1.022822049527706</v>
       </c>
       <c r="K4">
-        <v>1.030831636000445</v>
+        <v>1.030831636000443</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.030179408988849</v>
+        <v>1.030179408988848</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005286363048442</v>
+        <v>1.005286363048443</v>
       </c>
       <c r="D5">
-        <v>1.022306688046326</v>
+        <v>1.022306688046327</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.022001453310287</v>
+        <v>1.022001453310288</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.047660393086866</v>
       </c>
       <c r="J5">
-        <v>1.024104125426047</v>
+        <v>1.024104125426048</v>
       </c>
       <c r="K5">
-        <v>1.031925100486393</v>
+        <v>1.031925100486394</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.03162326808909</v>
+        <v>1.031623268089091</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,10 +576,10 @@
         <v>1.005583321938688</v>
       </c>
       <c r="D6">
-        <v>1.022528195269777</v>
+        <v>1.022528195269778</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
         <v>1.02228221953439</v>
@@ -597,10 +597,10 @@
         <v>1.032107542824636</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.031864295488024</v>
+        <v>1.031864295488025</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>1.020997806684496</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.020342765673236</v>
@@ -635,7 +635,7 @@
         <v>1.030846324911208</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
         <v>1.03019879665545</v>
@@ -649,25 +649,25 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9946989661152749</v>
+        <v>0.9946989661152756</v>
       </c>
       <c r="D8">
-        <v>1.014412637113956</v>
+        <v>1.014412637113957</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.012006004273753</v>
+        <v>1.012006004273754</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044179168271612</v>
+        <v>1.044179168271613</v>
       </c>
       <c r="J8">
-        <v>1.016462065621485</v>
+        <v>1.016462065621486</v>
       </c>
       <c r="K8">
         <v>1.025400855979291</v>
@@ -676,7 +676,7 @@
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.023025765859278</v>
+        <v>1.023025765859279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9780497743770122</v>
+        <v>0.9780497743770108</v>
       </c>
       <c r="D9">
-        <v>1.002018775842403</v>
+        <v>1.002018775842402</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9963448459718764</v>
+        <v>0.9963448459718757</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.038573388422698</v>
       </c>
       <c r="J9">
-        <v>1.004402195192017</v>
+        <v>1.004402195192016</v>
       </c>
       <c r="K9">
         <v>1.015079184510122</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>1.009497505179896</v>
+        <v>1.009497505179895</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9660917712750201</v>
+        <v>0.9660917712750225</v>
       </c>
       <c r="D10">
-        <v>0.9931386710942209</v>
+        <v>0.9931386710942233</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.9851396517835237</v>
+        <v>0.9851396517835255</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034469506284973</v>
+        <v>1.034469506284974</v>
       </c>
       <c r="J10">
-        <v>0.995718443753523</v>
+        <v>0.9957184437535253</v>
       </c>
       <c r="K10">
-        <v>1.007632923963425</v>
+        <v>1.007632923963428</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9997825000385245</v>
+        <v>0.9997825000385263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9606765086081499</v>
+        <v>0.9606765086081502</v>
       </c>
       <c r="D11">
-        <v>0.9891245644135352</v>
+        <v>0.9891245644135356</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9800772998022048</v>
+        <v>0.9800772998022053</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1.032593875925446</v>
       </c>
       <c r="J11">
-        <v>0.9917818998444173</v>
+        <v>0.9917818998444178</v>
       </c>
       <c r="K11">
         <v>1.004254531739752</v>
@@ -790,7 +790,7 @@
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9953849697885353</v>
+        <v>0.9953849697885356</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9586260645912384</v>
+        <v>0.9586260645912377</v>
       </c>
       <c r="D12">
-        <v>0.9876059626625752</v>
+        <v>0.9876059626625745</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9781624530006513</v>
+        <v>0.9781624530006503</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03188122650898</v>
+        <v>1.031881226508979</v>
       </c>
       <c r="J12">
-        <v>0.9902908633816911</v>
+        <v>0.9902908633816905</v>
       </c>
       <c r="K12">
-        <v>1.002974528357145</v>
+        <v>1.002974528357144</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>0.9937203354686327</v>
+        <v>0.9937203354686317</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9590677133468875</v>
+        <v>0.9590677133468862</v>
       </c>
       <c r="D13">
-        <v>0.9879329944555592</v>
+        <v>0.9879329944555579</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.978574803400461</v>
+        <v>0.9785748034004601</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032034834183322</v>
+        <v>1.032034834183321</v>
       </c>
       <c r="J13">
-        <v>0.9906120408758026</v>
+        <v>0.9906120408758012</v>
       </c>
       <c r="K13">
-        <v>1.0032502643418</v>
+        <v>1.003250264341799</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9940788608090062</v>
+        <v>0.9940788608090055</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9605078340115764</v>
+        <v>0.960507834011577</v>
       </c>
       <c r="D14">
-        <v>0.9889996127200996</v>
+        <v>0.9889996127201004</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9799197387797617</v>
+        <v>0.9799197387797621</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032535300718952</v>
+        <v>1.032535300718953</v>
       </c>
       <c r="J14">
-        <v>0.9916592528924366</v>
+        <v>0.9916592528924371</v>
       </c>
       <c r="K14">
-        <v>1.004149250907225</v>
+        <v>1.004149250907226</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9952480226869695</v>
+        <v>0.99524802268697</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,25 +915,25 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9613898690606073</v>
+        <v>0.9613898690606076</v>
       </c>
       <c r="D15">
-        <v>0.9896530658550213</v>
+        <v>0.9896530658550216</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9807437397255964</v>
+        <v>0.9807437397255968</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032841503709241</v>
+        <v>1.032841503709242</v>
       </c>
       <c r="J15">
-        <v>0.9923005801743495</v>
+        <v>0.9923005801743496</v>
       </c>
       <c r="K15">
         <v>1.004699754835848</v>
@@ -942,7 +942,7 @@
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9959641673886852</v>
+        <v>0.9959641673886857</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9664458901174851</v>
+        <v>0.9664458901174839</v>
       </c>
       <c r="D16">
-        <v>0.9934013327145522</v>
+        <v>0.9934013327145508</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9854709547074288</v>
+        <v>0.9854709547074275</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.034591813727967</v>
       </c>
       <c r="J16">
-        <v>0.9959757904536473</v>
+        <v>0.9959757904536459</v>
       </c>
       <c r="K16">
-        <v>1.007853727602112</v>
+        <v>1.007853727602111</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.000070120236189</v>
+        <v>1.000070120236188</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9695516387566249</v>
+        <v>0.9695516387566239</v>
       </c>
       <c r="D17">
-        <v>0.995705816104074</v>
+        <v>0.9957058161040733</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9883779709169811</v>
+        <v>0.9883779709169799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035662571501674</v>
+        <v>1.035662571501673</v>
       </c>
       <c r="J17">
-        <v>0.9982323684276787</v>
+        <v>0.9982323684276777</v>
       </c>
       <c r="K17">
-        <v>1.009789559191841</v>
+        <v>1.00978955919184</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.002592891945301</v>
+        <v>1.002592891945299</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,31 +1029,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9713405116492271</v>
+        <v>0.971340511649228</v>
       </c>
       <c r="D18">
-        <v>0.9970338420062754</v>
+        <v>0.9970338420062759</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9900534911885892</v>
+        <v>0.9900534911885893</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036277694869421</v>
+        <v>1.036277694869422</v>
       </c>
       <c r="J18">
-        <v>0.9995317415348624</v>
+        <v>0.9995317415348629</v>
       </c>
       <c r="K18">
-        <v>1.010903972378881</v>
+        <v>1.010903972378882</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
         <v>1.004046151861424</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.971946721781329</v>
+        <v>0.9719467217813281</v>
       </c>
       <c r="D19">
-        <v>0.9974839892804838</v>
+        <v>0.9974839892804827</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
-        <v>0.9906214730200198</v>
+        <v>0.9906214730200186</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.036485868645173</v>
       </c>
       <c r="J19">
-        <v>0.9999720019198428</v>
+        <v>0.9999720019198417</v>
       </c>
       <c r="K19">
-        <v>1.011281516666042</v>
+        <v>1.011281516666041</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
-        <v>1.004538655296241</v>
+        <v>1.00453865529624</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.969220787514023</v>
+        <v>0.9692207875140233</v>
       </c>
       <c r="D20">
-        <v>0.9954602513370456</v>
+        <v>0.9954602513370457</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9880681733767858</v>
+        <v>0.988068173376786</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03554867266137</v>
       </c>
       <c r="J20">
-        <v>0.9979920177724604</v>
+        <v>0.9979920177724607</v>
       </c>
       <c r="K20">
-        <v>1.009583399238579</v>
+        <v>1.00958339923858</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>1.002324125258323</v>
+        <v>1.002324125258324</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9600848590056013</v>
+        <v>0.9600848590056015</v>
       </c>
       <c r="D21">
-        <v>0.9886863007212421</v>
+        <v>0.9886863007212422</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.9795246648946125</v>
+        <v>0.9795246648946128</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032388376158969</v>
+        <v>1.03238837615897</v>
       </c>
       <c r="J21">
-        <v>0.9913516910142987</v>
+        <v>0.9913516910142989</v>
       </c>
       <c r="K21">
-        <v>1.003885232177183</v>
+        <v>1.003885232177184</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
-        <v>0.9949046166474983</v>
+        <v>0.9949046166474984</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9541132756879975</v>
+        <v>0.9541132756879976</v>
       </c>
       <c r="D22">
-        <v>0.984266357196462</v>
+        <v>0.9842663571964618</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9739519377593931</v>
+        <v>0.9739519377593929</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9900576959803425</v>
+        <v>0.990057695980342</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9573017082413815</v>
+        <v>0.9573017082413829</v>
       </c>
       <c r="D23">
-        <v>0.9866255128344952</v>
+        <v>0.9866255128344965</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9769262554921277</v>
+        <v>0.9769262554921291</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031420258311426</v>
+        <v>1.031420258311427</v>
       </c>
       <c r="J23">
-        <v>0.9893276962787024</v>
+        <v>0.9893276962787038</v>
       </c>
       <c r="K23">
-        <v>1.00214758282311</v>
+        <v>1.002147582823111</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9926453179358898</v>
+        <v>0.9926453179358908</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9693703547230067</v>
+        <v>0.969370354723005</v>
       </c>
       <c r="D24">
-        <v>0.9955712612005473</v>
+        <v>0.9955712612005458</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.9882082194328621</v>
+        <v>0.9882082194328609</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035600167706251</v>
+        <v>1.03560016770625</v>
       </c>
       <c r="J24">
-        <v>0.9981006737891807</v>
+        <v>0.9981006737891791</v>
       </c>
       <c r="K24">
-        <v>1.009676599405358</v>
+        <v>1.009676599405356</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>1.002445625505187</v>
+        <v>1.002445625505186</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9824949825105331</v>
+        <v>0.9824949825105315</v>
       </c>
       <c r="D25">
-        <v>1.005324825265128</v>
+        <v>1.005324825265127</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
-        <v>1.000519430784943</v>
+        <v>1.000519430784942</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040083675655337</v>
+        <v>1.040083675655336</v>
       </c>
       <c r="J25">
-        <v>1.007626170665367</v>
+        <v>1.007626170665365</v>
       </c>
       <c r="K25">
-        <v>1.017841038754371</v>
+        <v>1.017841038754369</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
-        <v>1.01310968860746</v>
+        <v>1.013109688607458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923557294858439</v>
+        <v>0.9923557294858458</v>
       </c>
       <c r="D2">
-        <v>1.01266660072702</v>
+        <v>1.012666600727022</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.009797607840631</v>
+        <v>1.009797607840632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043399129783645</v>
+        <v>1.043399129783646</v>
       </c>
       <c r="J2">
-        <v>1.014767508337694</v>
+        <v>1.014767508337696</v>
       </c>
       <c r="K2">
-        <v>1.023952245723487</v>
+        <v>1.023952245723488</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.021122113316556</v>
+        <v>1.021122113316557</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992060054718307</v>
+        <v>0.9992060054718295</v>
       </c>
       <c r="D3">
-        <v>1.017772235515947</v>
+        <v>1.017772235515946</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016257581889937</v>
+        <v>1.016257581889936</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.045670146389209</v>
       </c>
       <c r="J3">
-        <v>1.019718339006588</v>
+        <v>1.019718339006587</v>
       </c>
       <c r="K3">
         <v>1.028182657266485</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.026686585507966</v>
+        <v>1.026686585507965</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003507646086275</v>
+        <v>1.003507646086277</v>
       </c>
       <c r="D4">
-        <v>1.020979994906625</v>
+        <v>1.020979994906626</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.020320197689839</v>
+        <v>1.02032019768984</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.047080840011932</v>
       </c>
       <c r="J4">
-        <v>1.022822049527706</v>
+        <v>1.022822049527707</v>
       </c>
       <c r="K4">
-        <v>1.030831636000443</v>
+        <v>1.030831636000445</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.030179408988848</v>
+        <v>1.030179408988849</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005286363048443</v>
+        <v>1.005286363048442</v>
       </c>
       <c r="D5">
-        <v>1.022306688046327</v>
+        <v>1.022306688046326</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.022001453310288</v>
+        <v>1.022001453310287</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.047660393086866</v>
       </c>
       <c r="J5">
-        <v>1.024104125426048</v>
+        <v>1.024104125426047</v>
       </c>
       <c r="K5">
-        <v>1.031925100486394</v>
+        <v>1.031925100486393</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.031623268089091</v>
+        <v>1.03162326808909</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,10 +576,10 @@
         <v>1.005583321938688</v>
       </c>
       <c r="D6">
-        <v>1.022528195269778</v>
+        <v>1.022528195269777</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
         <v>1.02228221953439</v>
@@ -597,10 +597,10 @@
         <v>1.032107542824636</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.031864295488025</v>
+        <v>1.031864295488024</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>1.020997806684496</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.020342765673236</v>
@@ -635,7 +635,7 @@
         <v>1.030846324911208</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
         <v>1.03019879665545</v>
@@ -649,25 +649,25 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9946989661152756</v>
+        <v>0.9946989661152749</v>
       </c>
       <c r="D8">
-        <v>1.014412637113957</v>
+        <v>1.014412637113956</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.012006004273754</v>
+        <v>1.012006004273753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044179168271613</v>
+        <v>1.044179168271612</v>
       </c>
       <c r="J8">
-        <v>1.016462065621486</v>
+        <v>1.016462065621485</v>
       </c>
       <c r="K8">
         <v>1.025400855979291</v>
@@ -676,7 +676,7 @@
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.023025765859279</v>
+        <v>1.023025765859278</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9780497743770108</v>
+        <v>0.9780497743770122</v>
       </c>
       <c r="D9">
-        <v>1.002018775842402</v>
+        <v>1.002018775842403</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9963448459718757</v>
+        <v>0.9963448459718764</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.038573388422698</v>
       </c>
       <c r="J9">
-        <v>1.004402195192016</v>
+        <v>1.004402195192017</v>
       </c>
       <c r="K9">
         <v>1.015079184510122</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834082</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.009497505179895</v>
+        <v>1.009497505179896</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9660917712750225</v>
+        <v>0.9660917712750201</v>
       </c>
       <c r="D10">
-        <v>0.9931386710942233</v>
+        <v>0.9931386710942209</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9851396517835255</v>
+        <v>0.9851396517835237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034469506284974</v>
+        <v>1.034469506284973</v>
       </c>
       <c r="J10">
-        <v>0.9957184437535253</v>
+        <v>0.995718443753523</v>
       </c>
       <c r="K10">
-        <v>1.007632923963428</v>
+        <v>1.007632923963425</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9997825000385263</v>
+        <v>0.9997825000385245</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9606765086081502</v>
+        <v>0.9606765086081499</v>
       </c>
       <c r="D11">
-        <v>0.9891245644135356</v>
+        <v>0.9891245644135352</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9800772998022053</v>
+        <v>0.9800772998022048</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1.032593875925446</v>
       </c>
       <c r="J11">
-        <v>0.9917818998444178</v>
+        <v>0.9917818998444173</v>
       </c>
       <c r="K11">
         <v>1.004254531739752</v>
@@ -790,7 +790,7 @@
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9953849697885356</v>
+        <v>0.9953849697885353</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9586260645912377</v>
+        <v>0.9586260645912384</v>
       </c>
       <c r="D12">
-        <v>0.9876059626625745</v>
+        <v>0.9876059626625752</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9781624530006503</v>
+        <v>0.9781624530006513</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031881226508979</v>
+        <v>1.03188122650898</v>
       </c>
       <c r="J12">
-        <v>0.9902908633816905</v>
+        <v>0.9902908633816911</v>
       </c>
       <c r="K12">
-        <v>1.002974528357144</v>
+        <v>1.002974528357145</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9937203354686317</v>
+        <v>0.9937203354686327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9590677133468862</v>
+        <v>0.9590677133468875</v>
       </c>
       <c r="D13">
-        <v>0.9879329944555579</v>
+        <v>0.9879329944555592</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9785748034004601</v>
+        <v>0.978574803400461</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032034834183321</v>
+        <v>1.032034834183322</v>
       </c>
       <c r="J13">
-        <v>0.9906120408758012</v>
+        <v>0.9906120408758026</v>
       </c>
       <c r="K13">
-        <v>1.003250264341799</v>
+        <v>1.0032502643418</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9940788608090055</v>
+        <v>0.9940788608090062</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.960507834011577</v>
+        <v>0.9605078340115764</v>
       </c>
       <c r="D14">
-        <v>0.9889996127201004</v>
+        <v>0.9889996127200996</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9799197387797621</v>
+        <v>0.9799197387797617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032535300718953</v>
+        <v>1.032535300718952</v>
       </c>
       <c r="J14">
-        <v>0.9916592528924371</v>
+        <v>0.9916592528924366</v>
       </c>
       <c r="K14">
-        <v>1.004149250907226</v>
+        <v>1.004149250907225</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.99524802268697</v>
+        <v>0.9952480226869695</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,25 +915,25 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9613898690606076</v>
+        <v>0.9613898690606073</v>
       </c>
       <c r="D15">
-        <v>0.9896530658550216</v>
+        <v>0.9896530658550213</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9807437397255968</v>
+        <v>0.9807437397255964</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032841503709242</v>
+        <v>1.032841503709241</v>
       </c>
       <c r="J15">
-        <v>0.9923005801743496</v>
+        <v>0.9923005801743495</v>
       </c>
       <c r="K15">
         <v>1.004699754835848</v>
@@ -942,7 +942,7 @@
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9959641673886857</v>
+        <v>0.9959641673886852</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9664458901174839</v>
+        <v>0.9664458901174851</v>
       </c>
       <c r="D16">
-        <v>0.9934013327145508</v>
+        <v>0.9934013327145522</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9854709547074275</v>
+        <v>0.9854709547074288</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.034591813727967</v>
       </c>
       <c r="J16">
-        <v>0.9959757904536459</v>
+        <v>0.9959757904536473</v>
       </c>
       <c r="K16">
-        <v>1.007853727602111</v>
+        <v>1.007853727602112</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.000070120236188</v>
+        <v>1.000070120236189</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9695516387566239</v>
+        <v>0.9695516387566249</v>
       </c>
       <c r="D17">
-        <v>0.9957058161040733</v>
+        <v>0.995705816104074</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9883779709169799</v>
+        <v>0.9883779709169811</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035662571501673</v>
+        <v>1.035662571501674</v>
       </c>
       <c r="J17">
-        <v>0.9982323684276777</v>
+        <v>0.9982323684276787</v>
       </c>
       <c r="K17">
-        <v>1.00978955919184</v>
+        <v>1.009789559191841</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.002592891945299</v>
+        <v>1.002592891945301</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,31 +1029,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.971340511649228</v>
+        <v>0.9713405116492271</v>
       </c>
       <c r="D18">
-        <v>0.9970338420062759</v>
+        <v>0.9970338420062754</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9900534911885893</v>
+        <v>0.9900534911885892</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036277694869422</v>
+        <v>1.036277694869421</v>
       </c>
       <c r="J18">
-        <v>0.9995317415348629</v>
+        <v>0.9995317415348624</v>
       </c>
       <c r="K18">
-        <v>1.010903972378882</v>
+        <v>1.010903972378881</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
         <v>1.004046151861424</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9719467217813281</v>
+        <v>0.971946721781329</v>
       </c>
       <c r="D19">
-        <v>0.9974839892804827</v>
+        <v>0.9974839892804838</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9906214730200186</v>
+        <v>0.9906214730200198</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.036485868645173</v>
       </c>
       <c r="J19">
-        <v>0.9999720019198417</v>
+        <v>0.9999720019198428</v>
       </c>
       <c r="K19">
-        <v>1.011281516666041</v>
+        <v>1.011281516666042</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.00453865529624</v>
+        <v>1.004538655296241</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9692207875140233</v>
+        <v>0.969220787514023</v>
       </c>
       <c r="D20">
-        <v>0.9954602513370457</v>
+        <v>0.9954602513370456</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.988068173376786</v>
+        <v>0.9880681733767858</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03554867266137</v>
       </c>
       <c r="J20">
-        <v>0.9979920177724607</v>
+        <v>0.9979920177724604</v>
       </c>
       <c r="K20">
-        <v>1.00958339923858</v>
+        <v>1.009583399238579</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.002324125258324</v>
+        <v>1.002324125258323</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9600848590056015</v>
+        <v>0.9600848590056013</v>
       </c>
       <c r="D21">
-        <v>0.9886863007212422</v>
+        <v>0.9886863007212421</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148893</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9795246648946128</v>
+        <v>0.9795246648946125</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03238837615897</v>
+        <v>1.032388376158969</v>
       </c>
       <c r="J21">
-        <v>0.9913516910142989</v>
+        <v>0.9913516910142987</v>
       </c>
       <c r="K21">
-        <v>1.003885232177184</v>
+        <v>1.003885232177183</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981063</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9949046166474984</v>
+        <v>0.9949046166474983</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9541132756879976</v>
+        <v>0.9541132756879975</v>
       </c>
       <c r="D22">
-        <v>0.9842663571964618</v>
+        <v>0.984266357196462</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9739519377593929</v>
+        <v>0.9739519377593931</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.990057695980342</v>
+        <v>0.9900576959803425</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9573017082413829</v>
+        <v>0.9573017082413815</v>
       </c>
       <c r="D23">
-        <v>0.9866255128344965</v>
+        <v>0.9866255128344952</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9769262554921291</v>
+        <v>0.9769262554921277</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031420258311427</v>
+        <v>1.031420258311426</v>
       </c>
       <c r="J23">
-        <v>0.9893276962787038</v>
+        <v>0.9893276962787024</v>
       </c>
       <c r="K23">
-        <v>1.002147582823111</v>
+        <v>1.00214758282311</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9926453179358908</v>
+        <v>0.9926453179358898</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.969370354723005</v>
+        <v>0.9693703547230067</v>
       </c>
       <c r="D24">
-        <v>0.9955712612005458</v>
+        <v>0.9955712612005473</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011822</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9882082194328609</v>
+        <v>0.9882082194328621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03560016770625</v>
+        <v>1.035600167706251</v>
       </c>
       <c r="J24">
-        <v>0.9981006737891791</v>
+        <v>0.9981006737891807</v>
       </c>
       <c r="K24">
-        <v>1.009676599405356</v>
+        <v>1.009676599405358</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.002445625505186</v>
+        <v>1.002445625505187</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9824949825105315</v>
+        <v>0.9824949825105331</v>
       </c>
       <c r="D25">
-        <v>1.005324825265127</v>
+        <v>1.005324825265128</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.000519430784942</v>
+        <v>1.000519430784943</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040083675655336</v>
+        <v>1.040083675655337</v>
       </c>
       <c r="J25">
-        <v>1.007626170665365</v>
+        <v>1.007626170665367</v>
       </c>
       <c r="K25">
-        <v>1.017841038754369</v>
+        <v>1.017841038754371</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.013109688607458</v>
+        <v>1.01310968860746</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923557294858458</v>
+        <v>0.9923628215004779</v>
       </c>
       <c r="D2">
-        <v>1.012666600727022</v>
+        <v>1.012672466988795</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.009797607840632</v>
+        <v>1.009803645958507</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043399129783646</v>
+        <v>1.043402274507036</v>
       </c>
       <c r="J2">
-        <v>1.014767508337696</v>
+        <v>1.014774383703098</v>
       </c>
       <c r="K2">
-        <v>1.023952245723488</v>
+        <v>1.023958032810444</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.021122113316557</v>
+        <v>1.0211280693564</v>
+      </c>
+      <c r="N2">
+        <v>1.011947496706231</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992060054718295</v>
+        <v>0.9992088001696592</v>
       </c>
       <c r="D3">
-        <v>1.017772235515946</v>
+        <v>1.017774770507839</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016257581889936</v>
+        <v>1.016260099208155</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045670146389209</v>
+        <v>1.045671504998354</v>
       </c>
       <c r="J3">
-        <v>1.019718339006587</v>
+        <v>1.019721057353417</v>
       </c>
       <c r="K3">
-        <v>1.028182657266485</v>
+        <v>1.028185161216587</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.026686585507965</v>
+        <v>1.026689071886398</v>
+      </c>
+      <c r="N3">
+        <v>1.015344051011113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003507646086277</v>
+        <v>1.003507788459879</v>
       </c>
       <c r="D4">
-        <v>1.020979994906626</v>
+        <v>1.020980469648615</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.02032019768984</v>
+        <v>1.020320544309384</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047080840011932</v>
+        <v>1.047081092241744</v>
       </c>
       <c r="J4">
-        <v>1.022822049527707</v>
+        <v>1.022822188293687</v>
       </c>
       <c r="K4">
-        <v>1.030831636000445</v>
+        <v>1.030832105299814</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.030179408988849</v>
+        <v>1.030179751628269</v>
+      </c>
+      <c r="N4">
+        <v>1.017472187391413</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005286363048442</v>
+        <v>1.005285418538459</v>
       </c>
       <c r="D5">
-        <v>1.022306688046326</v>
+        <v>1.02230631765041</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.022001453310287</v>
+        <v>1.022000910952175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047660393086866</v>
+        <v>1.047660191057865</v>
       </c>
       <c r="J5">
-        <v>1.024104125426047</v>
+        <v>1.024103204085441</v>
       </c>
       <c r="K5">
-        <v>1.031925100486393</v>
+        <v>1.031924734217629</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.03162326808909</v>
+        <v>1.031622731778669</v>
+      </c>
+      <c r="N5">
+        <v>1.018350980575956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005583321938688</v>
+        <v>1.005582196517661</v>
       </c>
       <c r="D6">
-        <v>1.022528195269777</v>
+        <v>1.022527684152942</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.02228221953439</v>
+        <v>1.022281529237821</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047756926693575</v>
+        <v>1.047756649003693</v>
       </c>
       <c r="J6">
-        <v>1.024318091364751</v>
+        <v>1.024316993399712</v>
       </c>
       <c r="K6">
-        <v>1.032107542824636</v>
+        <v>1.03210703737551</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.031864295488024</v>
+        <v>1.031863612850598</v>
+      </c>
+      <c r="N6">
+        <v>1.018497625013457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0035315279702</v>
+        <v>1.003531655713367</v>
       </c>
       <c r="D7">
-        <v>1.020997806684496</v>
+        <v>1.020998270053496</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.020342765673236</v>
+        <v>1.020343100324213</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04708863635618</v>
+        <v>1.047088882474662</v>
       </c>
       <c r="J7">
-        <v>1.022839268499401</v>
+        <v>1.02283939300706</v>
       </c>
       <c r="K7">
-        <v>1.030846324911208</v>
+        <v>1.030846782969976</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.03019879665545</v>
+        <v>1.030199127465229</v>
+      </c>
+      <c r="N7">
+        <v>1.017483991234737</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9946989661152749</v>
+        <v>0.9947045776209704</v>
       </c>
       <c r="D8">
-        <v>1.014412637113956</v>
+        <v>1.014417356661432</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.012006004273753</v>
+        <v>1.01201082889145</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044179168271612</v>
+        <v>1.044181698542933</v>
       </c>
       <c r="J8">
-        <v>1.016462065621485</v>
+        <v>1.016467511959155</v>
       </c>
       <c r="K8">
-        <v>1.025400855979291</v>
+        <v>1.02540551385386</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.023025765859278</v>
+        <v>1.023030527054621</v>
+      </c>
+      <c r="N8">
+        <v>1.01311030544953</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9780497743770122</v>
+        <v>0.9780661646964751</v>
       </c>
       <c r="D9">
-        <v>1.002018775842403</v>
+        <v>1.002031819150749</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9963448459718764</v>
+        <v>0.9963585168743254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038573388422698</v>
+        <v>1.038580370676667</v>
       </c>
       <c r="J9">
-        <v>1.004402195192017</v>
+        <v>1.004417969524974</v>
       </c>
       <c r="K9">
-        <v>1.015079184510122</v>
+        <v>1.015092017296397</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.009497505179896</v>
+        <v>1.009510952188391</v>
+      </c>
+      <c r="N9">
+        <v>1.00483005806067</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9660917712750201</v>
+        <v>0.9661163170307955</v>
       </c>
       <c r="D10">
-        <v>0.9931386710942209</v>
+        <v>0.9931579715136172</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9851396517835237</v>
+        <v>0.9851600315833147</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034469506284973</v>
+        <v>1.034479823952685</v>
       </c>
       <c r="J10">
-        <v>0.995718443753523</v>
+        <v>0.9957419152504563</v>
       </c>
       <c r="K10">
-        <v>1.007632923963425</v>
+        <v>1.007651869615679</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9997825000385245</v>
+        <v>0.999802497244778</v>
+      </c>
+      <c r="N10">
+        <v>0.9988622530999975</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9606765086081499</v>
+        <v>0.9607048771051208</v>
       </c>
       <c r="D11">
-        <v>0.9891245644135352</v>
+        <v>0.9891467848684309</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9800772998022048</v>
+        <v>0.9801008281911664</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032593875925446</v>
+        <v>1.03260574727235</v>
       </c>
       <c r="J11">
-        <v>0.9917818998444173</v>
+        <v>0.9918089447405639</v>
       </c>
       <c r="K11">
-        <v>1.004254531739752</v>
+        <v>1.004276320995092</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9953849697885353</v>
+        <v>0.9954080304494611</v>
+      </c>
+      <c r="N11">
+        <v>0.9961557572814955</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9586260645912384</v>
+        <v>0.9586559032013056</v>
       </c>
       <c r="D12">
-        <v>0.9876059626625752</v>
+        <v>0.9876293038220145</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9781624530006513</v>
+        <v>0.9781871928315226</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03188122650898</v>
+        <v>1.031893693704181</v>
       </c>
       <c r="J12">
-        <v>0.9902908633816911</v>
+        <v>0.9903192766777577</v>
       </c>
       <c r="K12">
-        <v>1.002974528357145</v>
+        <v>1.002997407482178</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9937203354686327</v>
+        <v>0.9937445730402735</v>
+      </c>
+      <c r="N12">
+        <v>0.9951304668147013</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9590677133468875</v>
+        <v>0.9590972342266271</v>
       </c>
       <c r="D13">
-        <v>0.9879329944555592</v>
+        <v>0.987956093508164</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.978574803400461</v>
+        <v>0.9785992813802979</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032034834183322</v>
+        <v>1.03204717267751</v>
       </c>
       <c r="J13">
-        <v>0.9906120408758026</v>
+        <v>0.9906401586975208</v>
       </c>
       <c r="K13">
-        <v>1.0032502643418</v>
+        <v>1.003272908091035</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9940788608090062</v>
+        <v>0.9941028440763494</v>
+      </c>
+      <c r="N13">
+        <v>0.9953513268386982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9605078340115764</v>
+        <v>0.9605363229638105</v>
       </c>
       <c r="D14">
-        <v>0.9889996127200996</v>
+        <v>0.9890219250485531</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9799197387797617</v>
+        <v>0.979943366417657</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032535300718952</v>
+        <v>1.032547220921765</v>
       </c>
       <c r="J14">
-        <v>0.9916592528924366</v>
+        <v>0.9916864100312107</v>
       </c>
       <c r="K14">
-        <v>1.004149250907225</v>
+        <v>1.004171129539394</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9952480226869695</v>
+        <v>0.9952711798046729</v>
+      </c>
+      <c r="N14">
+        <v>0.9960714238894219</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9613898690606073</v>
+        <v>0.9614177290682646</v>
       </c>
       <c r="D15">
-        <v>0.9896530658550213</v>
+        <v>0.9896748983822721</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9807437397255964</v>
+        <v>0.9807668491692718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032841503709241</v>
+        <v>1.032853168748225</v>
       </c>
       <c r="J15">
-        <v>0.9923005801743495</v>
+        <v>0.9923271510109225</v>
       </c>
       <c r="K15">
-        <v>1.004699754835848</v>
+        <v>1.004721166644337</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9959641673886852</v>
+        <v>0.9959868208177278</v>
+      </c>
+      <c r="N15">
+        <v>0.9965124013105562</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9664458901174851</v>
+        <v>0.9664701888303298</v>
       </c>
       <c r="D16">
-        <v>0.9934013327145522</v>
+        <v>0.9934204441397587</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9854709547074288</v>
+        <v>0.9854911311108889</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034591813727967</v>
+        <v>1.034602030776244</v>
       </c>
       <c r="J16">
-        <v>0.9959757904536473</v>
+        <v>0.9959990302660424</v>
       </c>
       <c r="K16">
-        <v>1.007853727602112</v>
+        <v>1.007872489010286</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.000070120236189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.000089919314539</v>
+      </c>
+      <c r="N16">
+        <v>0.9990391644263342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9695516387566249</v>
+        <v>0.9695737857483455</v>
       </c>
       <c r="D17">
-        <v>0.995705816104074</v>
+        <v>0.9957232799472198</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9883779709169811</v>
+        <v>0.9883963761895841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035662571501674</v>
+        <v>1.035671911065604</v>
       </c>
       <c r="J17">
-        <v>0.9982323684276787</v>
+        <v>0.9982535863982055</v>
       </c>
       <c r="K17">
-        <v>1.009789559191841</v>
+        <v>1.009806713401495</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.002592891945301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.002610964571537</v>
+      </c>
+      <c r="N17">
+        <v>1.000590306217894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9713405116492271</v>
+        <v>0.9713614312048819</v>
       </c>
       <c r="D18">
-        <v>0.9970338420062754</v>
+        <v>0.997050364832839</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9900534911885892</v>
+        <v>0.9900708864886528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036277694869421</v>
+        <v>1.03628653299444</v>
       </c>
       <c r="J18">
-        <v>0.9995317415348624</v>
+        <v>0.9995518030258743</v>
       </c>
       <c r="K18">
-        <v>1.010903972378881</v>
+        <v>1.010920207805125</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.004046151861424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.004063239025576</v>
+      </c>
+      <c r="N18">
+        <v>1.001483368719669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.971946721781329</v>
+        <v>0.9719672273226005</v>
       </c>
       <c r="D19">
-        <v>0.9974839892804838</v>
+        <v>0.9975001945131049</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9906214730200198</v>
+        <v>0.990638527716699</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036485868645173</v>
+        <v>1.036494537489905</v>
       </c>
       <c r="J19">
-        <v>0.9999720019198428</v>
+        <v>0.9999916728160555</v>
       </c>
       <c r="K19">
-        <v>1.011281516666042</v>
+        <v>1.011297441864562</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.004538655296241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.004555409963608</v>
+      </c>
+      <c r="N19">
+        <v>1.001785941813601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.969220787514023</v>
+        <v>0.9692431624648769</v>
       </c>
       <c r="D20">
-        <v>0.9954602513370456</v>
+        <v>0.9954778898529199</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9880681733767858</v>
+        <v>0.98808676625035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03554867266137</v>
+        <v>1.035558105281724</v>
       </c>
       <c r="J20">
-        <v>0.9979920177724604</v>
+        <v>0.9980134502733149</v>
       </c>
       <c r="K20">
-        <v>1.009583399238579</v>
+        <v>1.009600723927213</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.002324125258323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.002342380855149</v>
+      </c>
+      <c r="N20">
+        <v>1.000425103618837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9600848590056013</v>
+        <v>0.96011365039242</v>
       </c>
       <c r="D21">
-        <v>0.9886863007212421</v>
+        <v>0.9887088436851369</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9795246648946125</v>
+        <v>0.9795485417324312</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032388376158969</v>
+        <v>1.032400419000262</v>
       </c>
       <c r="J21">
-        <v>0.9913516910142987</v>
+        <v>0.9913791298721448</v>
       </c>
       <c r="K21">
-        <v>1.003885232177183</v>
+        <v>1.003907335152616</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9949046166474983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9949280159253757</v>
+      </c>
+      <c r="N21">
+        <v>0.9958599385009923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9541132756879975</v>
+        <v>0.954146395724236</v>
       </c>
       <c r="D22">
-        <v>0.984266357196462</v>
+        <v>0.9842921952841922</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9739519377593931</v>
+        <v>0.9739793827242331</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03030837680945</v>
+        <v>1.030322170693045</v>
       </c>
       <c r="J22">
-        <v>0.9870084823024579</v>
+        <v>0.9870399383964105</v>
       </c>
       <c r="K22">
-        <v>1.000156079614256</v>
+        <v>1.000181384027588</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9900576959803425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9900845580682933</v>
+      </c>
+      <c r="N22">
+        <v>0.9928731136616444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9573017082413815</v>
+        <v>0.957332503218858</v>
       </c>
       <c r="D23">
-        <v>0.9866255128344952</v>
+        <v>0.9866495823770789</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9769262554921277</v>
+        <v>0.976951783579689</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031420258311426</v>
+        <v>1.031433112638387</v>
       </c>
       <c r="J23">
-        <v>0.9893276962787024</v>
+        <v>0.9893569980446842</v>
       </c>
       <c r="K23">
-        <v>1.00214758282311</v>
+        <v>1.002171169850197</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9926453179358898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.992670320771315</v>
+      </c>
+      <c r="N23">
+        <v>0.9944681163839576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9693703547230067</v>
+        <v>0.96939262658404</v>
       </c>
       <c r="D24">
-        <v>0.9955712612005473</v>
+        <v>0.9955888207278866</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9882082194328621</v>
+        <v>0.9882267274666414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035600167706251</v>
+        <v>1.035609558246497</v>
       </c>
       <c r="J24">
-        <v>0.9981006737891807</v>
+        <v>0.9981220092828402</v>
       </c>
       <c r="K24">
-        <v>1.009676599405358</v>
+        <v>1.00969384700449</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.002445625505187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.00246379835925</v>
+      </c>
+      <c r="N24">
+        <v>1.000499787577162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9824949825105331</v>
+        <v>0.9825084335068169</v>
       </c>
       <c r="D25">
-        <v>1.005324825265128</v>
+        <v>1.005335604594179</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.000519430784943</v>
+        <v>1.000530686834538</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040083675655337</v>
+        <v>1.040089448819024</v>
       </c>
       <c r="J25">
-        <v>1.007626170665367</v>
+        <v>1.007639146109293</v>
       </c>
       <c r="K25">
-        <v>1.017841038754371</v>
+        <v>1.017851653004311</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.01310968860746</v>
+        <v>1.013120770155597</v>
+      </c>
+      <c r="N25">
+        <v>1.007044624246026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923628215004779</v>
+        <v>0.9956927120654507</v>
       </c>
       <c r="D2">
-        <v>1.012672466988795</v>
+        <v>1.013691098717959</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.002853206272588</v>
       </c>
       <c r="F2">
-        <v>1.009803645958507</v>
+        <v>1.006269963863061</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043402274507036</v>
+        <v>1.039612077011559</v>
       </c>
       <c r="J2">
-        <v>1.014774383703098</v>
+        <v>1.018003021066473</v>
       </c>
       <c r="K2">
-        <v>1.023958032810444</v>
+        <v>1.024962933900873</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.014272934005611</v>
       </c>
       <c r="M2">
-        <v>1.0211280693564</v>
+        <v>1.017642633816357</v>
       </c>
       <c r="N2">
-        <v>1.011947496706231</v>
+        <v>1.019448702122957</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992088001696592</v>
+        <v>1.002219013787885</v>
       </c>
       <c r="D3">
-        <v>1.017774770507839</v>
+        <v>1.018537817799978</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.009566825056107</v>
       </c>
       <c r="F3">
-        <v>1.016260099208155</v>
+        <v>1.013531902000467</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045671504998354</v>
+        <v>1.041386645724003</v>
       </c>
       <c r="J3">
-        <v>1.019721057353417</v>
+        <v>1.022649368498086</v>
       </c>
       <c r="K3">
-        <v>1.028185161216587</v>
+        <v>1.028938873481088</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.020078742667334</v>
       </c>
       <c r="M3">
-        <v>1.026689071886398</v>
+        <v>1.023994518593065</v>
       </c>
       <c r="N3">
-        <v>1.015344051011113</v>
+        <v>1.024101647900876</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003507788459879</v>
+        <v>1.006321642110244</v>
       </c>
       <c r="D4">
-        <v>1.020980469648615</v>
+        <v>1.021586685321844</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.013797641719488</v>
       </c>
       <c r="F4">
-        <v>1.020320544309384</v>
+        <v>1.018107587813312</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047081092241744</v>
+        <v>1.042489993813049</v>
       </c>
       <c r="J4">
-        <v>1.022822188293687</v>
+        <v>1.025565010432199</v>
       </c>
       <c r="K4">
-        <v>1.030832105299814</v>
+        <v>1.031431376183397</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.023732345368516</v>
       </c>
       <c r="M4">
-        <v>1.030179751628269</v>
+        <v>1.027992274034561</v>
       </c>
       <c r="N4">
-        <v>1.017472187391413</v>
+        <v>1.027021430380963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005285418538459</v>
+        <v>1.00801904414806</v>
       </c>
       <c r="D5">
-        <v>1.02230631765041</v>
+        <v>1.022848508574711</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.015550609213071</v>
       </c>
       <c r="F5">
-        <v>1.022000910952175</v>
+        <v>1.020003298993257</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047660191057865</v>
+        <v>1.042943503358675</v>
       </c>
       <c r="J5">
-        <v>1.024103204085441</v>
+        <v>1.02677001674325</v>
       </c>
       <c r="K5">
-        <v>1.031924734217629</v>
+        <v>1.032460887694734</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.025244918700023</v>
       </c>
       <c r="M5">
-        <v>1.031622731778669</v>
+        <v>1.029647448378585</v>
       </c>
       <c r="N5">
-        <v>1.018350980575956</v>
+        <v>1.028228147939193</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005582196517661</v>
+        <v>1.008302482471942</v>
       </c>
       <c r="D6">
-        <v>1.022527684152942</v>
+        <v>1.023059233091908</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.015843475549375</v>
       </c>
       <c r="F6">
-        <v>1.022281529237821</v>
+        <v>1.020320005113166</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047756649003693</v>
+        <v>1.043019054862099</v>
       </c>
       <c r="J6">
-        <v>1.024316993399712</v>
+        <v>1.026971155265484</v>
       </c>
       <c r="K6">
-        <v>1.03210703737551</v>
+        <v>1.032632695798479</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.025497549866551</v>
       </c>
       <c r="M6">
-        <v>1.031863612850598</v>
+        <v>1.029923904192437</v>
       </c>
       <c r="N6">
-        <v>1.018497625013457</v>
+        <v>1.028429572101199</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003531655713367</v>
+        <v>1.006344428466488</v>
       </c>
       <c r="D7">
-        <v>1.020998270053496</v>
+        <v>1.021603622904336</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.013821163957842</v>
       </c>
       <c r="F7">
-        <v>1.020343100324213</v>
+        <v>1.018133026024595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047088882474662</v>
+        <v>1.042496093725068</v>
       </c>
       <c r="J7">
-        <v>1.02283939300706</v>
+        <v>1.025581191944984</v>
       </c>
       <c r="K7">
-        <v>1.030846782969976</v>
+        <v>1.031445203524427</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.023752646763846</v>
       </c>
       <c r="M7">
-        <v>1.030199127465229</v>
+        <v>1.028014488895348</v>
       </c>
       <c r="N7">
-        <v>1.017483991234737</v>
+        <v>1.027037634873352</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9947045776209704</v>
+        <v>0.9979241382262746</v>
       </c>
       <c r="D8">
-        <v>1.014417356661432</v>
+        <v>1.015347753938933</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.005146493828882</v>
       </c>
       <c r="F8">
-        <v>1.01201082889145</v>
+        <v>1.008750701361895</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044181698542933</v>
+        <v>1.040221361396568</v>
       </c>
       <c r="J8">
-        <v>1.016467511959155</v>
+        <v>1.019592728663957</v>
       </c>
       <c r="K8">
-        <v>1.02540551385386</v>
+        <v>1.026323767145628</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.016257200964446</v>
       </c>
       <c r="M8">
-        <v>1.023030527054621</v>
+        <v>1.019813429284512</v>
       </c>
       <c r="N8">
-        <v>1.01311030544953</v>
+        <v>1.02104066728758</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9780661646964751</v>
+        <v>0.9820926660387987</v>
       </c>
       <c r="D9">
-        <v>1.002031819150749</v>
+        <v>1.003607560434442</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9889200498400127</v>
       </c>
       <c r="F9">
-        <v>0.9963585168743254</v>
+        <v>0.9911943682840969</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038580370676667</v>
+        <v>1.035848491620354</v>
       </c>
       <c r="J9">
-        <v>1.004417969524974</v>
+        <v>1.008294021520825</v>
       </c>
       <c r="K9">
-        <v>1.015092017296397</v>
+        <v>1.016642377394809</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>1.002195486385764</v>
       </c>
       <c r="M9">
-        <v>1.009510952188391</v>
+        <v>1.004431944804275</v>
       </c>
       <c r="N9">
-        <v>1.00483005806067</v>
+        <v>1.009725914684325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9661163170307955</v>
+        <v>0.970757340480161</v>
       </c>
       <c r="D10">
-        <v>0.9931579715136172</v>
+        <v>0.9952242383808336</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9773568777487321</v>
       </c>
       <c r="F10">
-        <v>0.9851600315833147</v>
+        <v>0.9786780787162283</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034479823952685</v>
+        <v>1.032656245373081</v>
       </c>
       <c r="J10">
-        <v>0.9957419152504563</v>
+        <v>1.000181214437018</v>
       </c>
       <c r="K10">
-        <v>1.007651869615679</v>
+        <v>1.009680259397113</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9921473604149953</v>
       </c>
       <c r="M10">
-        <v>0.999802497244778</v>
+        <v>0.993443282500227</v>
       </c>
       <c r="N10">
-        <v>0.9988622530999975</v>
+        <v>1.001601586483907</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9607048771051208</v>
+        <v>0.9656345540744005</v>
       </c>
       <c r="D11">
-        <v>0.9891467848684309</v>
+        <v>0.9914428872886748</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9721437262618874</v>
       </c>
       <c r="F11">
-        <v>0.9801008281911664</v>
+        <v>0.9730336171563113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03260574727235</v>
+        <v>1.031200016869267</v>
       </c>
       <c r="J11">
-        <v>0.9918089447405639</v>
+        <v>0.9965103103758357</v>
       </c>
       <c r="K11">
-        <v>1.004276320995092</v>
+        <v>1.006528002825446</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9876108113322473</v>
       </c>
       <c r="M11">
-        <v>0.9954080304494611</v>
+        <v>0.9884826504797646</v>
       </c>
       <c r="N11">
-        <v>0.9961557572814955</v>
+        <v>0.9979254693178997</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9586559032013056</v>
+        <v>0.9636966409884945</v>
       </c>
       <c r="D12">
-        <v>0.9876293038220145</v>
+        <v>0.9900137155234461</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.970173479457869</v>
       </c>
       <c r="F12">
-        <v>0.9781871928315226</v>
+        <v>0.9709000896613796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031893693704181</v>
+        <v>1.030647192582752</v>
       </c>
       <c r="J12">
-        <v>0.9903192766777577</v>
+        <v>0.9951210531021376</v>
       </c>
       <c r="K12">
-        <v>1.002997407482178</v>
+        <v>1.005334770848145</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9858953209728093</v>
       </c>
       <c r="M12">
-        <v>0.9937445730402735</v>
+        <v>0.9866068715236521</v>
       </c>
       <c r="N12">
-        <v>0.9951304668147013</v>
+        <v>0.9965342391395227</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9590972342266271</v>
+        <v>0.9641139671301613</v>
       </c>
       <c r="D13">
-        <v>0.987956093508164</v>
+        <v>0.9903214239375699</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9705976858237131</v>
       </c>
       <c r="F13">
-        <v>0.9785992813802979</v>
+        <v>0.971359464206408</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03204717267751</v>
+        <v>1.030766328469287</v>
       </c>
       <c r="J13">
-        <v>0.9906401586975208</v>
+        <v>0.9954202518492308</v>
       </c>
       <c r="K13">
-        <v>1.003272908091035</v>
+        <v>1.005591763253361</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9862647197109971</v>
       </c>
       <c r="M13">
-        <v>0.9941028440763494</v>
+        <v>0.9870107819893512</v>
       </c>
       <c r="N13">
-        <v>0.9953513268386982</v>
+        <v>0.9968338627831552</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9605363229638105</v>
+        <v>0.965475098989555</v>
       </c>
       <c r="D14">
-        <v>0.9890219250485531</v>
+        <v>0.9913252651799552</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9719815734299192</v>
       </c>
       <c r="F14">
-        <v>0.979943366417657</v>
+        <v>0.9728580319146889</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032547220921765</v>
+        <v>1.031154568320536</v>
       </c>
       <c r="J14">
-        <v>0.9916864100312107</v>
+        <v>0.9963960109340398</v>
       </c>
       <c r="K14">
-        <v>1.004171129539394</v>
+        <v>1.006429836066149</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9874696445023647</v>
       </c>
       <c r="M14">
-        <v>0.9952711798046729</v>
+        <v>0.9883282920365772</v>
       </c>
       <c r="N14">
-        <v>0.9960714238894219</v>
+        <v>0.9978110075577858</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9614177290682646</v>
+        <v>0.966308997224685</v>
       </c>
       <c r="D15">
-        <v>0.9896748983822721</v>
+        <v>0.9919404439718614</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9728296549682219</v>
       </c>
       <c r="F15">
-        <v>0.9807668491692718</v>
+        <v>0.973776355527838</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032853168748225</v>
+        <v>1.03139217101217</v>
       </c>
       <c r="J15">
-        <v>0.9923271510109225</v>
+        <v>0.9969937367963442</v>
       </c>
       <c r="K15">
-        <v>1.004721166644337</v>
+        <v>1.006943186321164</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9882079275185922</v>
       </c>
       <c r="M15">
-        <v>0.9959868208177278</v>
+        <v>0.9891355684994556</v>
       </c>
       <c r="N15">
-        <v>0.9965124013105562</v>
+        <v>0.9984095822593748</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9664701888303298</v>
+        <v>0.9710925675747218</v>
       </c>
       <c r="D16">
-        <v>0.9934204441397587</v>
+        <v>0.9954718509914279</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9776982757097703</v>
       </c>
       <c r="F16">
-        <v>0.9854911311108889</v>
+        <v>0.9790476864295572</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034602030776244</v>
+        <v>1.032751265652965</v>
       </c>
       <c r="J16">
-        <v>0.9959990302660424</v>
+        <v>1.000421347480311</v>
       </c>
       <c r="K16">
-        <v>1.007872489010286</v>
+        <v>1.009886426977905</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9924443164986066</v>
       </c>
       <c r="M16">
-        <v>1.000089919314539</v>
+        <v>0.9937680094808922</v>
       </c>
       <c r="N16">
-        <v>0.9990391644263342</v>
+        <v>1.001842060543666</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9695737857483455</v>
+        <v>0.9740338342695181</v>
       </c>
       <c r="D17">
-        <v>0.9957232799472198</v>
+        <v>0.9976452408329567</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9806951041187809</v>
       </c>
       <c r="F17">
-        <v>0.9883963761895841</v>
+        <v>0.9822919582360496</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035671911065604</v>
+        <v>1.033583449105735</v>
       </c>
       <c r="J17">
-        <v>0.9982535863982055</v>
+        <v>1.002527768425271</v>
       </c>
       <c r="K17">
-        <v>1.009806713401495</v>
+        <v>1.011694683863745</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9950503020089987</v>
       </c>
       <c r="M17">
-        <v>1.002610964571537</v>
+        <v>0.9966177648124458</v>
       </c>
       <c r="N17">
-        <v>1.000590306217894</v>
+        <v>1.003951472847977</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9713614312048819</v>
+        <v>0.9757289378513104</v>
       </c>
       <c r="D18">
-        <v>0.997050364832839</v>
+        <v>0.998898480275064</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9824234173195771</v>
       </c>
       <c r="F18">
-        <v>0.9900708864886528</v>
+        <v>0.9841628265392619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03628653299444</v>
+        <v>1.034061770203134</v>
       </c>
       <c r="J18">
-        <v>0.9995518030258743</v>
+        <v>1.003741308718302</v>
       </c>
       <c r="K18">
-        <v>1.010920207805125</v>
+        <v>1.012736254511235</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9965526031568579</v>
       </c>
       <c r="M18">
-        <v>1.004063239025576</v>
+        <v>0.998260646981434</v>
       </c>
       <c r="N18">
-        <v>1.001483368719669</v>
+        <v>1.00516673650742</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9719672273226005</v>
+        <v>0.9763035304516138</v>
       </c>
       <c r="D19">
-        <v>0.9975001945131049</v>
+        <v>0.9993234029410252</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9830094698361773</v>
       </c>
       <c r="F19">
-        <v>0.990638527716699</v>
+        <v>0.984797193552675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036494537489905</v>
+        <v>1.034223687762483</v>
       </c>
       <c r="J19">
-        <v>0.9999916728160555</v>
+        <v>1.004152589851963</v>
       </c>
       <c r="K19">
-        <v>1.011297441864562</v>
+        <v>1.013089219360948</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9970619140718595</v>
       </c>
       <c r="M19">
-        <v>1.004555409963608</v>
+        <v>0.9988176267665141</v>
       </c>
       <c r="N19">
-        <v>1.001785941813601</v>
+        <v>1.005578601707465</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9692431624648769</v>
+        <v>0.9737204028315121</v>
       </c>
       <c r="D20">
-        <v>0.9954778898529199</v>
+        <v>0.9974135654055377</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9803756286292781</v>
       </c>
       <c r="F20">
-        <v>0.98808676625035</v>
+        <v>0.9819461198454699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035558105281724</v>
+        <v>1.033494901254386</v>
       </c>
       <c r="J20">
-        <v>0.9980134502733149</v>
+        <v>1.002303344760707</v>
       </c>
       <c r="K20">
-        <v>1.009600723927213</v>
+        <v>1.011502047123646</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9947725551773886</v>
       </c>
       <c r="M20">
-        <v>1.002342380855149</v>
+        <v>0.9963140315041044</v>
       </c>
       <c r="N20">
-        <v>1.000425103618837</v>
+        <v>1.003726730476068</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.96011365039242</v>
+        <v>0.9650752726998866</v>
       </c>
       <c r="D21">
-        <v>0.9887088436851369</v>
+        <v>0.9910303544925397</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9715750122704337</v>
       </c>
       <c r="F21">
-        <v>0.9795485417324312</v>
+        <v>0.9724177875654828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032400419000262</v>
+        <v>1.031040577247522</v>
       </c>
       <c r="J21">
-        <v>0.9913791298721448</v>
+        <v>0.996109401327137</v>
       </c>
       <c r="K21">
-        <v>1.003907335152616</v>
+        <v>1.006183675715477</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9871156855894323</v>
       </c>
       <c r="M21">
-        <v>0.9949280159253757</v>
+        <v>0.987941257966537</v>
       </c>
       <c r="N21">
-        <v>0.9958599385009923</v>
+        <v>0.9975239909323668</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.954146395724236</v>
+        <v>0.959435080337162</v>
       </c>
       <c r="D22">
-        <v>0.9842921952841922</v>
+        <v>0.986873492314691</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9658441762386123</v>
       </c>
       <c r="F22">
-        <v>0.9739793827242331</v>
+        <v>0.9662114631642391</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030322170693045</v>
+        <v>1.02942803094053</v>
       </c>
       <c r="J22">
-        <v>0.9870399383964105</v>
+        <v>0.9920650494220297</v>
       </c>
       <c r="K22">
-        <v>1.000181384027588</v>
+        <v>1.002709551294162</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9821240532649352</v>
       </c>
       <c r="M22">
-        <v>0.9900845580682933</v>
+        <v>0.9824833686003897</v>
       </c>
       <c r="N22">
-        <v>0.9928731136616444</v>
+        <v>0.9934738955836607</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.957332503218858</v>
+        <v>0.9624455000510576</v>
       </c>
       <c r="D23">
-        <v>0.9866495823770789</v>
+        <v>0.9890914114670756</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9689019793106193</v>
       </c>
       <c r="F23">
-        <v>0.976951783579689</v>
+        <v>0.9695231352122513</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031433112638387</v>
+        <v>1.030289746661769</v>
       </c>
       <c r="J23">
-        <v>0.9893569980446842</v>
+        <v>0.9942239796576855</v>
       </c>
       <c r="K23">
-        <v>1.002171169850197</v>
+        <v>1.004564208709771</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9847879597728413</v>
       </c>
       <c r="M23">
-        <v>0.992670320771315</v>
+        <v>0.9853960641166654</v>
       </c>
       <c r="N23">
-        <v>0.9944681163839576</v>
+        <v>0.9956358917478838</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.96939262658404</v>
+        <v>0.9738620921079829</v>
       </c>
       <c r="D24">
-        <v>0.9955888207278866</v>
+        <v>0.9975182941122167</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9805200464749446</v>
       </c>
       <c r="F24">
-        <v>0.9882267274666414</v>
+        <v>0.9821024554143276</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035609558246497</v>
+        <v>1.033534934028674</v>
       </c>
       <c r="J24">
-        <v>0.9981220092828402</v>
+        <v>1.002404798669405</v>
       </c>
       <c r="K24">
-        <v>1.00969384700449</v>
+        <v>1.011589131903833</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9948981116072165</v>
       </c>
       <c r="M24">
-        <v>1.00246379835925</v>
+        <v>0.9964513350489798</v>
       </c>
       <c r="N24">
-        <v>1.000499787577162</v>
+        <v>1.003828328460954</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9825084335068169</v>
+        <v>0.9863141386381312</v>
       </c>
       <c r="D25">
-        <v>1.005335604594179</v>
+        <v>1.006734821098965</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9932373491423954</v>
       </c>
       <c r="F25">
-        <v>1.000530686834538</v>
+        <v>0.995866336931862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040089448819024</v>
+        <v>1.037025261573651</v>
       </c>
       <c r="J25">
-        <v>1.007639146109293</v>
+        <v>1.011311030882037</v>
       </c>
       <c r="K25">
-        <v>1.017851653004311</v>
+        <v>1.019229479599108</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.005941561606602</v>
       </c>
       <c r="M25">
-        <v>1.013120770155597</v>
+        <v>1.008529163422361</v>
       </c>
       <c r="N25">
-        <v>1.007044624246026</v>
+        <v>1.012747208544886</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9956927120654507</v>
+        <v>1.004417367661286</v>
       </c>
       <c r="D2">
-        <v>1.013691098717959</v>
+        <v>1.022002710812838</v>
       </c>
       <c r="E2">
-        <v>1.002853206272588</v>
+        <v>1.00817443094084</v>
       </c>
       <c r="F2">
-        <v>1.006269963863061</v>
+        <v>1.012193826497629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039612077011559</v>
+        <v>1.045995095848454</v>
       </c>
       <c r="J2">
-        <v>1.018003021066473</v>
+        <v>1.026466754016373</v>
       </c>
       <c r="K2">
-        <v>1.024962933900873</v>
+        <v>1.033163792612964</v>
       </c>
       <c r="L2">
-        <v>1.014272934005611</v>
+        <v>1.019521045659124</v>
       </c>
       <c r="M2">
-        <v>1.017642633816357</v>
+        <v>1.023485856151487</v>
       </c>
       <c r="N2">
-        <v>1.019448702122957</v>
+        <v>1.012840841228203</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002219013787885</v>
+        <v>1.00818594230616</v>
       </c>
       <c r="D3">
-        <v>1.018537817799978</v>
+        <v>1.024772155233084</v>
       </c>
       <c r="E3">
-        <v>1.009566825056107</v>
+        <v>1.0134095242944</v>
       </c>
       <c r="F3">
-        <v>1.013531902000467</v>
+        <v>1.017677806354685</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041386645724003</v>
+        <v>1.047145714731287</v>
       </c>
       <c r="J3">
-        <v>1.022649368498086</v>
+        <v>1.028455910821894</v>
       </c>
       <c r="K3">
-        <v>1.028938873481088</v>
+        <v>1.035097587274839</v>
       </c>
       <c r="L3">
-        <v>1.020078742667334</v>
+        <v>1.023873655324353</v>
       </c>
       <c r="M3">
-        <v>1.023994518593065</v>
+        <v>1.028089384557695</v>
       </c>
       <c r="N3">
-        <v>1.024101647900876</v>
+        <v>1.013496299540842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006321642110244</v>
+        <v>1.010574789622181</v>
       </c>
       <c r="D4">
-        <v>1.021586685321844</v>
+        <v>1.026528695403024</v>
       </c>
       <c r="E4">
-        <v>1.013797641719488</v>
+        <v>1.016730637423426</v>
       </c>
       <c r="F4">
-        <v>1.018107587813312</v>
+        <v>1.021155967418563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042489993813049</v>
+        <v>1.047863341131997</v>
       </c>
       <c r="J4">
-        <v>1.025565010432199</v>
+        <v>1.029711805523997</v>
       </c>
       <c r="K4">
-        <v>1.031431376183397</v>
+        <v>1.036317147928619</v>
       </c>
       <c r="L4">
-        <v>1.023732345368516</v>
+        <v>1.02663124634862</v>
       </c>
       <c r="M4">
-        <v>1.027992274034561</v>
+        <v>1.031005591525583</v>
       </c>
       <c r="N4">
-        <v>1.027021430380963</v>
+        <v>1.013910173285045</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00801904414806</v>
+        <v>1.011567540454726</v>
       </c>
       <c r="D5">
-        <v>1.022848508574711</v>
+        <v>1.027258881622395</v>
       </c>
       <c r="E5">
-        <v>1.015550609213071</v>
+        <v>1.01811161406641</v>
       </c>
       <c r="F5">
-        <v>1.020003298993257</v>
+        <v>1.022602042377872</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042943503358675</v>
+        <v>1.048158718587605</v>
       </c>
       <c r="J5">
-        <v>1.02677001674325</v>
+        <v>1.030232507237488</v>
       </c>
       <c r="K5">
-        <v>1.032460887694734</v>
+        <v>1.036822440982103</v>
       </c>
       <c r="L5">
-        <v>1.025244918700023</v>
+        <v>1.027777007486697</v>
       </c>
       <c r="M5">
-        <v>1.029647448378585</v>
+        <v>1.032217164991304</v>
       </c>
       <c r="N5">
-        <v>1.028228147939193</v>
+        <v>1.014081775836723</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008302482471942</v>
+        <v>1.011733562573013</v>
       </c>
       <c r="D6">
-        <v>1.023059233091908</v>
+        <v>1.027381005011886</v>
       </c>
       <c r="E6">
-        <v>1.015843475549375</v>
+        <v>1.018342612265206</v>
       </c>
       <c r="F6">
-        <v>1.020320005113166</v>
+        <v>1.022843917562911</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043019054862099</v>
+        <v>1.04820794716558</v>
       </c>
       <c r="J6">
-        <v>1.026971155265484</v>
+        <v>1.030319514235779</v>
       </c>
       <c r="K6">
-        <v>1.032632695798479</v>
+        <v>1.036906852628045</v>
       </c>
       <c r="L6">
-        <v>1.025497549866551</v>
+        <v>1.027968608013174</v>
       </c>
       <c r="M6">
-        <v>1.029923904192437</v>
+        <v>1.032419765444777</v>
       </c>
       <c r="N6">
-        <v>1.028429572101199</v>
+        <v>1.014110450319884</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006344428466488</v>
+        <v>1.010588099596337</v>
       </c>
       <c r="D7">
-        <v>1.021603622904336</v>
+        <v>1.026538484359125</v>
       </c>
       <c r="E7">
-        <v>1.013821163957842</v>
+        <v>1.016749149050955</v>
       </c>
       <c r="F7">
-        <v>1.018133026024595</v>
+        <v>1.021175352484339</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042496093725068</v>
+        <v>1.047867312619962</v>
       </c>
       <c r="J7">
-        <v>1.025581191944984</v>
+        <v>1.029718791501143</v>
       </c>
       <c r="K7">
-        <v>1.031445203524427</v>
+        <v>1.036323928555015</v>
       </c>
       <c r="L7">
-        <v>1.023752646763846</v>
+        <v>1.026646608515226</v>
       </c>
       <c r="M7">
-        <v>1.028014488895348</v>
+        <v>1.031021836462962</v>
       </c>
       <c r="N7">
-        <v>1.027037634873352</v>
+        <v>1.013912475554734</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979241382262746</v>
+        <v>1.005701489369608</v>
       </c>
       <c r="D8">
-        <v>1.015347753938933</v>
+        <v>1.022946144818317</v>
       </c>
       <c r="E8">
-        <v>1.005146493828882</v>
+        <v>1.009957802871689</v>
       </c>
       <c r="F8">
-        <v>1.008750701361895</v>
+        <v>1.014062158839532</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040221361396568</v>
+        <v>1.046389601805706</v>
       </c>
       <c r="J8">
-        <v>1.019592728663957</v>
+        <v>1.027145586428299</v>
       </c>
       <c r="K8">
-        <v>1.026323767145628</v>
+        <v>1.033824013838488</v>
       </c>
       <c r="L8">
-        <v>1.016257200964446</v>
+        <v>1.021004557883735</v>
       </c>
       <c r="M8">
-        <v>1.019813429284512</v>
+        <v>1.025054959605921</v>
       </c>
       <c r="N8">
-        <v>1.02104066728758</v>
+        <v>1.013064518859689</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9820926660387987</v>
+        <v>0.9966925998902177</v>
       </c>
       <c r="D9">
-        <v>1.003607560434442</v>
+        <v>1.016333379094943</v>
       </c>
       <c r="E9">
-        <v>0.9889200498400127</v>
+        <v>0.9974507149977285</v>
       </c>
       <c r="F9">
-        <v>0.9911943682840969</v>
+        <v>1.000955752553001</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035848491620354</v>
+        <v>1.043573574196774</v>
       </c>
       <c r="J9">
-        <v>1.008294021520825</v>
+        <v>1.022362694019924</v>
       </c>
       <c r="K9">
-        <v>1.016642377394809</v>
+        <v>1.029166902516361</v>
       </c>
       <c r="L9">
-        <v>1.002195486385764</v>
+        <v>1.010585288424498</v>
       </c>
       <c r="M9">
-        <v>1.004431944804275</v>
+        <v>1.014033342347603</v>
       </c>
       <c r="N9">
-        <v>1.009725914684325</v>
+        <v>1.011488733081475</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.970757340480161</v>
+        <v>0.9903928489603638</v>
       </c>
       <c r="D10">
-        <v>0.9952242383808336</v>
+        <v>1.011718664345687</v>
       </c>
       <c r="E10">
-        <v>0.9773568777487321</v>
+        <v>0.988701975500402</v>
       </c>
       <c r="F10">
-        <v>0.9786780787162283</v>
+        <v>0.9917834872237202</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032656245373081</v>
+        <v>1.041544525712558</v>
       </c>
       <c r="J10">
-        <v>1.000181214437018</v>
+        <v>1.018992889616419</v>
       </c>
       <c r="K10">
-        <v>1.009680259397113</v>
+        <v>1.025879509841539</v>
       </c>
       <c r="L10">
-        <v>0.9921473604149953</v>
+        <v>1.003278260153947</v>
       </c>
       <c r="M10">
-        <v>0.993443282500227</v>
+        <v>1.00630269515056</v>
       </c>
       <c r="N10">
-        <v>1.001601586483907</v>
+        <v>1.010378794518392</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9656345540744005</v>
+        <v>0.9875889654323279</v>
       </c>
       <c r="D11">
-        <v>0.9914428872886748</v>
+        <v>1.009667621394204</v>
       </c>
       <c r="E11">
-        <v>0.9721437262618874</v>
+        <v>0.9848045600392612</v>
       </c>
       <c r="F11">
-        <v>0.9730336171563113</v>
+        <v>0.9876964179390531</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031200016869267</v>
+        <v>1.040627736793811</v>
       </c>
       <c r="J11">
-        <v>0.9965103103758357</v>
+        <v>1.017487330487523</v>
       </c>
       <c r="K11">
-        <v>1.006528002825446</v>
+        <v>1.024409494792602</v>
       </c>
       <c r="L11">
-        <v>0.9876108113322473</v>
+        <v>1.000018844501197</v>
       </c>
       <c r="M11">
-        <v>0.9884826504797646</v>
+        <v>1.00285415256535</v>
       </c>
       <c r="N11">
-        <v>0.9979254693178997</v>
+        <v>1.009882978124072</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9636966409884945</v>
+        <v>0.9865354707202629</v>
       </c>
       <c r="D12">
-        <v>0.9900137155234461</v>
+        <v>1.008897474586612</v>
       </c>
       <c r="E12">
-        <v>0.970173479457869</v>
+        <v>0.9833393970159122</v>
       </c>
       <c r="F12">
-        <v>0.9709000896613796</v>
+        <v>0.9861598144011682</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030647192582752</v>
+        <v>1.040281257917821</v>
       </c>
       <c r="J12">
-        <v>0.9951210531021376</v>
+        <v>1.016920810952815</v>
       </c>
       <c r="K12">
-        <v>1.005334770848145</v>
+        <v>1.023856175455197</v>
       </c>
       <c r="L12">
-        <v>0.9858953209728093</v>
+        <v>0.9987929034015308</v>
       </c>
       <c r="M12">
-        <v>0.9866068715236521</v>
+        <v>1.001557062431048</v>
       </c>
       <c r="N12">
-        <v>0.9965342391395227</v>
+        <v>1.009696423114111</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9641139671301613</v>
+        <v>0.9867620020643324</v>
       </c>
       <c r="D13">
-        <v>0.9903214239375699</v>
+        <v>1.009063055239398</v>
       </c>
       <c r="E13">
-        <v>0.9705976858237131</v>
+        <v>0.9836544893673428</v>
       </c>
       <c r="F13">
-        <v>0.971359464206408</v>
+        <v>0.9864902769010464</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030766328469287</v>
+        <v>1.040355851164723</v>
       </c>
       <c r="J13">
-        <v>0.9954202518492308</v>
+        <v>1.017042666411799</v>
       </c>
       <c r="K13">
-        <v>1.005591763253361</v>
+        <v>1.023975199221183</v>
       </c>
       <c r="L13">
-        <v>0.9862647197109971</v>
+        <v>0.99905657743911</v>
       </c>
       <c r="M13">
-        <v>0.9870107819893512</v>
+        <v>1.001836039578344</v>
       </c>
       <c r="N13">
-        <v>0.9968338627831552</v>
+        <v>1.0097365495236</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.965475098989555</v>
+        <v>0.9875021316873792</v>
       </c>
       <c r="D14">
-        <v>0.9913252651799552</v>
+        <v>1.009604132262647</v>
       </c>
       <c r="E14">
-        <v>0.9719815734299192</v>
+        <v>0.984683812602326</v>
       </c>
       <c r="F14">
-        <v>0.9728580319146889</v>
+        <v>0.9875697858217382</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031154568320536</v>
+        <v>1.04059921920056</v>
       </c>
       <c r="J14">
-        <v>0.9963960109340398</v>
+        <v>1.017440652376678</v>
       </c>
       <c r="K14">
-        <v>1.006429836066149</v>
+        <v>1.024363907750755</v>
       </c>
       <c r="L14">
-        <v>0.9874696445023647</v>
+        <v>0.9999178244395485</v>
       </c>
       <c r="M14">
-        <v>0.9883282920365772</v>
+        <v>1.00274726989853</v>
       </c>
       <c r="N14">
-        <v>0.9978110075577858</v>
+        <v>1.00986760673426</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.966308997224685</v>
+        <v>0.987956540778724</v>
       </c>
       <c r="D15">
-        <v>0.9919404439718614</v>
+        <v>1.009936396929535</v>
       </c>
       <c r="E15">
-        <v>0.9728296549682219</v>
+        <v>0.9853156610017064</v>
       </c>
       <c r="F15">
-        <v>0.973776355527838</v>
+        <v>0.9882324218066126</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03139217101217</v>
+        <v>1.040748372476222</v>
       </c>
       <c r="J15">
-        <v>0.9969937367963442</v>
+        <v>1.017684889153988</v>
       </c>
       <c r="K15">
-        <v>1.006943186321164</v>
+        <v>1.024602428653553</v>
       </c>
       <c r="L15">
-        <v>0.9882079275185922</v>
+        <v>1.000446417963594</v>
       </c>
       <c r="M15">
-        <v>0.9891355684994556</v>
+        <v>1.003306539348406</v>
       </c>
       <c r="N15">
-        <v>0.9984095822593748</v>
+        <v>1.009948035961418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9710925675747218</v>
+        <v>0.9905772824274663</v>
       </c>
       <c r="D16">
-        <v>0.9954718509914279</v>
+        <v>1.011853641887919</v>
       </c>
       <c r="E16">
-        <v>0.9776982757097703</v>
+        <v>0.9889582433044072</v>
       </c>
       <c r="F16">
-        <v>0.9790476864295572</v>
+        <v>0.9920522052748766</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032751265652965</v>
+        <v>1.04160454811815</v>
       </c>
       <c r="J16">
-        <v>1.000421347480311</v>
+        <v>1.019091804393807</v>
       </c>
       <c r="K16">
-        <v>1.009886426977905</v>
+        <v>1.02597606427071</v>
       </c>
       <c r="L16">
-        <v>0.9924443164986066</v>
+        <v>1.003492490108745</v>
       </c>
       <c r="M16">
-        <v>0.9937680094808922</v>
+        <v>1.006529353210891</v>
       </c>
       <c r="N16">
-        <v>1.001842060543666</v>
+        <v>1.010411371290526</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9740338342695181</v>
+        <v>0.9922004452792673</v>
       </c>
       <c r="D17">
-        <v>0.9976452408329567</v>
+        <v>1.013041885783887</v>
       </c>
       <c r="E17">
-        <v>0.9806951041187809</v>
+        <v>0.9912131727581959</v>
       </c>
       <c r="F17">
-        <v>0.9822919582360496</v>
+        <v>0.9944165747424133</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033583449105735</v>
+        <v>1.042131238439254</v>
       </c>
       <c r="J17">
-        <v>1.002527768425271</v>
+        <v>1.019961683957546</v>
       </c>
       <c r="K17">
-        <v>1.011694683863745</v>
+        <v>1.026825043447104</v>
       </c>
       <c r="L17">
-        <v>0.9950503020089987</v>
+        <v>1.005377041144078</v>
       </c>
       <c r="M17">
-        <v>0.9966177648124458</v>
+        <v>1.008523215030225</v>
       </c>
       <c r="N17">
-        <v>1.003951472847977</v>
+        <v>1.010697868376064</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9757289378513104</v>
+        <v>0.9931399123605362</v>
       </c>
       <c r="D18">
-        <v>0.998898480275064</v>
+        <v>1.013729895477556</v>
       </c>
       <c r="E18">
-        <v>0.9824234173195771</v>
+        <v>0.9925179813544526</v>
       </c>
       <c r="F18">
-        <v>0.9841628265392619</v>
+        <v>0.99578461725987</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034061770203134</v>
+        <v>1.042434777003838</v>
       </c>
       <c r="J18">
-        <v>1.003741308718302</v>
+        <v>1.020464614370554</v>
       </c>
       <c r="K18">
-        <v>1.012736254511235</v>
+        <v>1.027315768098142</v>
       </c>
       <c r="L18">
-        <v>0.9965526031568579</v>
+        <v>1.006467126200036</v>
       </c>
       <c r="M18">
-        <v>0.998260646981434</v>
+        <v>1.00967651258784</v>
       </c>
       <c r="N18">
-        <v>1.00516673650742</v>
+        <v>1.01086351743185</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9763035304516138</v>
+        <v>0.9934590257931687</v>
       </c>
       <c r="D19">
-        <v>0.9993234029410252</v>
+        <v>1.013963639074897</v>
       </c>
       <c r="E19">
-        <v>0.9830094698361773</v>
+        <v>0.9929611459491795</v>
       </c>
       <c r="F19">
-        <v>0.984797193552675</v>
+        <v>0.9962492426734035</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034223687762483</v>
+        <v>1.042537659103922</v>
       </c>
       <c r="J19">
-        <v>1.004152589851963</v>
+        <v>1.020635354098715</v>
       </c>
       <c r="K19">
-        <v>1.013089219360948</v>
+        <v>1.027482342903363</v>
       </c>
       <c r="L19">
-        <v>0.9970619140718595</v>
+        <v>1.006837292982877</v>
       </c>
       <c r="M19">
-        <v>0.9988176267665141</v>
+        <v>1.010068141735256</v>
       </c>
       <c r="N19">
-        <v>1.005578601707465</v>
+        <v>1.010919754850803</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9737204028315121</v>
+        <v>0.9920270540410496</v>
       </c>
       <c r="D20">
-        <v>0.9974135654055377</v>
+        <v>1.012914925689942</v>
       </c>
       <c r="E20">
-        <v>0.9803756286292781</v>
+        <v>0.9909723290343649</v>
       </c>
       <c r="F20">
-        <v>0.9819461198454699</v>
+        <v>0.9941640516354836</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033494901254386</v>
+        <v>1.042075110687867</v>
       </c>
       <c r="J20">
-        <v>1.002303344760707</v>
+        <v>1.019868817184432</v>
       </c>
       <c r="K20">
-        <v>1.011502047123646</v>
+        <v>1.02673442050082</v>
       </c>
       <c r="L20">
-        <v>0.9947725551773886</v>
+        <v>1.005175798583449</v>
       </c>
       <c r="M20">
-        <v>0.9963140315041044</v>
+        <v>1.008310301297726</v>
       </c>
       <c r="N20">
-        <v>1.003726730476068</v>
+        <v>1.010667281664917</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9650752726998866</v>
+        <v>0.9872845183026132</v>
       </c>
       <c r="D21">
-        <v>0.9910303544925397</v>
+        <v>1.009445030643685</v>
       </c>
       <c r="E21">
-        <v>0.9715750122704337</v>
+        <v>0.9843811945578085</v>
       </c>
       <c r="F21">
-        <v>0.9724177875654828</v>
+        <v>0.9872524172516934</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031040577247522</v>
+        <v>1.040527719136833</v>
       </c>
       <c r="J21">
-        <v>0.996109401327137</v>
+        <v>1.017323659252527</v>
       </c>
       <c r="K21">
-        <v>1.006183675715477</v>
+        <v>1.024249646510034</v>
       </c>
       <c r="L21">
-        <v>0.9871156855894323</v>
+        <v>0.9996646373092831</v>
       </c>
       <c r="M21">
-        <v>0.987941257966537</v>
+        <v>1.002479389100475</v>
       </c>
       <c r="N21">
-        <v>0.9975239909323668</v>
+        <v>1.009829080395434</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.959435080337162</v>
+        <v>0.9842329078992534</v>
       </c>
       <c r="D22">
-        <v>0.986873492314691</v>
+        <v>1.007215163273228</v>
       </c>
       <c r="E22">
-        <v>0.9658441762386123</v>
+        <v>0.9801352923301597</v>
       </c>
       <c r="F22">
-        <v>0.9662114631642391</v>
+        <v>0.9827992196319627</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02942803094053</v>
+        <v>1.0395203184902</v>
       </c>
       <c r="J22">
-        <v>0.9920650494220297</v>
+        <v>1.015681079505252</v>
       </c>
       <c r="K22">
-        <v>1.002709551294162</v>
+        <v>1.022645028746129</v>
       </c>
       <c r="L22">
-        <v>0.9821240532649352</v>
+        <v>0.9961108184708759</v>
       </c>
       <c r="M22">
-        <v>0.9824833686003897</v>
+        <v>0.9987193059366066</v>
       </c>
       <c r="N22">
-        <v>0.9934738955836607</v>
+        <v>1.009288205050685</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9624455000510576</v>
+        <v>0.9858574445918573</v>
       </c>
       <c r="D23">
-        <v>0.9890914114670756</v>
+        <v>1.008401954099134</v>
       </c>
       <c r="E23">
-        <v>0.9689019793106193</v>
+        <v>0.9823961620497192</v>
       </c>
       <c r="F23">
-        <v>0.9695231352122513</v>
+        <v>0.9851705478595755</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030289746661769</v>
+        <v>1.040057702238761</v>
       </c>
       <c r="J23">
-        <v>0.9942239796576855</v>
+        <v>1.016555966424524</v>
       </c>
       <c r="K23">
-        <v>1.004564208709771</v>
+        <v>1.023499785005549</v>
       </c>
       <c r="L23">
-        <v>0.9847879597728413</v>
+        <v>0.9980035003018328</v>
       </c>
       <c r="M23">
-        <v>0.9853960641166654</v>
+        <v>1.00072184277118</v>
       </c>
       <c r="N23">
-        <v>0.9956358917478838</v>
+        <v>1.009576283627928</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9738620921079829</v>
+        <v>0.9921054245837307</v>
       </c>
       <c r="D24">
-        <v>0.9975182941122167</v>
+        <v>1.012972309142315</v>
       </c>
       <c r="E24">
-        <v>0.9805200464749446</v>
+        <v>0.9910811881709319</v>
       </c>
       <c r="F24">
-        <v>0.9821024554143276</v>
+        <v>0.9942781900346053</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033534934028674</v>
+        <v>1.042100483732305</v>
       </c>
       <c r="J24">
-        <v>1.002404798669405</v>
+        <v>1.019910793428121</v>
       </c>
       <c r="K24">
-        <v>1.011589131903833</v>
+        <v>1.026775382903247</v>
       </c>
       <c r="L24">
-        <v>0.9948981116072165</v>
+        <v>1.005266759617755</v>
       </c>
       <c r="M24">
-        <v>0.9964513350489798</v>
+        <v>1.008406537718341</v>
       </c>
       <c r="N24">
-        <v>1.003828328460954</v>
+        <v>1.010681106987041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9863141386381312</v>
+        <v>0.9990713804552946</v>
       </c>
       <c r="D25">
-        <v>1.006734821098965</v>
+        <v>1.018078032760711</v>
       </c>
       <c r="E25">
-        <v>0.9932373491423954</v>
+        <v>1.000752772383342</v>
       </c>
       <c r="F25">
-        <v>0.995866336931862</v>
+        <v>1.004416792624532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037025261573651</v>
+        <v>1.044327619222169</v>
       </c>
       <c r="J25">
-        <v>1.011311030882037</v>
+        <v>1.023630036817554</v>
       </c>
       <c r="K25">
-        <v>1.019229479599108</v>
+        <v>1.030402045883556</v>
       </c>
       <c r="L25">
-        <v>1.005941561606602</v>
+        <v>1.013339413758985</v>
       </c>
       <c r="M25">
-        <v>1.008529163422361</v>
+        <v>1.016946928334137</v>
       </c>
       <c r="N25">
-        <v>1.012747208544886</v>
+        <v>1.011906230499524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004417367661286</v>
+        <v>1.026474207863608</v>
       </c>
       <c r="D2">
-        <v>1.022002710812838</v>
+        <v>1.031864070389793</v>
       </c>
       <c r="E2">
-        <v>1.00817443094084</v>
+        <v>1.049066468113903</v>
       </c>
       <c r="F2">
-        <v>1.012193826497629</v>
+        <v>1.053548558217059</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045995095848454</v>
+        <v>1.03432358770371</v>
       </c>
       <c r="J2">
-        <v>1.026466754016373</v>
+        <v>1.031637448183044</v>
       </c>
       <c r="K2">
-        <v>1.033163792612964</v>
+        <v>1.034670957818054</v>
       </c>
       <c r="L2">
-        <v>1.019521045659124</v>
+        <v>1.051824561480208</v>
       </c>
       <c r="M2">
-        <v>1.023485856151487</v>
+        <v>1.056294221939822</v>
       </c>
       <c r="N2">
-        <v>1.012840841228203</v>
+        <v>1.014595877209362</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00818594230616</v>
+        <v>1.027247949604007</v>
       </c>
       <c r="D3">
-        <v>1.024772155233084</v>
+        <v>1.032445002752774</v>
       </c>
       <c r="E3">
-        <v>1.0134095242944</v>
+        <v>1.050259521086883</v>
       </c>
       <c r="F3">
-        <v>1.017677806354685</v>
+        <v>1.05479477476538</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047145714731287</v>
+        <v>1.034494033626405</v>
       </c>
       <c r="J3">
-        <v>1.028455910821894</v>
+        <v>1.032051870079746</v>
       </c>
       <c r="K3">
-        <v>1.035097587274839</v>
+        <v>1.035061152948912</v>
       </c>
       <c r="L3">
-        <v>1.023873655324353</v>
+        <v>1.052828801864592</v>
       </c>
       <c r="M3">
-        <v>1.028089384557695</v>
+        <v>1.057352396207918</v>
       </c>
       <c r="N3">
-        <v>1.013496299540842</v>
+        <v>1.014732421722262</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010574789622181</v>
+        <v>1.027748699526991</v>
       </c>
       <c r="D4">
-        <v>1.026528695403024</v>
+        <v>1.03282082991619</v>
       </c>
       <c r="E4">
-        <v>1.016730637423426</v>
+        <v>1.05103244487655</v>
       </c>
       <c r="F4">
-        <v>1.021155967418563</v>
+        <v>1.055602063799782</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047863341131997</v>
+        <v>1.034602914682867</v>
       </c>
       <c r="J4">
-        <v>1.029711805523997</v>
+        <v>1.032319442113542</v>
       </c>
       <c r="K4">
-        <v>1.036317147928619</v>
+        <v>1.035312861085237</v>
       </c>
       <c r="L4">
-        <v>1.02663124634862</v>
+        <v>1.053478979173613</v>
       </c>
       <c r="M4">
-        <v>1.031005591525583</v>
+        <v>1.058037447087229</v>
       </c>
       <c r="N4">
-        <v>1.013910173285045</v>
+        <v>1.014820577475987</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011567540454726</v>
+        <v>1.027959234343575</v>
       </c>
       <c r="D5">
-        <v>1.027258881622395</v>
+        <v>1.032978808199847</v>
       </c>
       <c r="E5">
-        <v>1.01811161406641</v>
+        <v>1.051357607312648</v>
       </c>
       <c r="F5">
-        <v>1.022602042377872</v>
+        <v>1.055941664940318</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048158718587605</v>
+        <v>1.034648350334723</v>
       </c>
       <c r="J5">
-        <v>1.030232507237488</v>
+        <v>1.032431788045931</v>
       </c>
       <c r="K5">
-        <v>1.036822440982103</v>
+        <v>1.035418492810136</v>
       </c>
       <c r="L5">
-        <v>1.027777007486697</v>
+        <v>1.053752401911521</v>
       </c>
       <c r="M5">
-        <v>1.032217164991304</v>
+        <v>1.058325524538406</v>
       </c>
       <c r="N5">
-        <v>1.014081775836723</v>
+        <v>1.014857590514149</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011733562573013</v>
+        <v>1.027994585172886</v>
       </c>
       <c r="D6">
-        <v>1.027381005011886</v>
+        <v>1.033005332263618</v>
       </c>
       <c r="E6">
-        <v>1.018342612265206</v>
+        <v>1.051412216742523</v>
       </c>
       <c r="F6">
-        <v>1.022843917562911</v>
+        <v>1.055998698196115</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04820794716558</v>
+        <v>1.034655959344111</v>
       </c>
       <c r="J6">
-        <v>1.030319514235779</v>
+        <v>1.032450643107054</v>
       </c>
       <c r="K6">
-        <v>1.036906852628045</v>
+        <v>1.035436217882403</v>
       </c>
       <c r="L6">
-        <v>1.027968608013174</v>
+        <v>1.053798315976784</v>
       </c>
       <c r="M6">
-        <v>1.032419765444777</v>
+        <v>1.058373898832133</v>
       </c>
       <c r="N6">
-        <v>1.014110450319884</v>
+        <v>1.014863802363227</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010588099596337</v>
+        <v>1.027751512628389</v>
       </c>
       <c r="D7">
-        <v>1.026538484359125</v>
+        <v>1.032822940908116</v>
       </c>
       <c r="E7">
-        <v>1.016749149050955</v>
+        <v>1.051036788827068</v>
       </c>
       <c r="F7">
-        <v>1.021175352484339</v>
+        <v>1.055606600714195</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047867312619962</v>
+        <v>1.034603523124991</v>
       </c>
       <c r="J7">
-        <v>1.029718791501143</v>
+        <v>1.032320943841941</v>
       </c>
       <c r="K7">
-        <v>1.036323928555015</v>
+        <v>1.035314273275141</v>
       </c>
       <c r="L7">
-        <v>1.026646608515226</v>
+        <v>1.053482632314519</v>
       </c>
       <c r="M7">
-        <v>1.031021836462962</v>
+        <v>1.058041296069351</v>
       </c>
       <c r="N7">
-        <v>1.013912475554734</v>
+        <v>1.014821072233609</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005701489369608</v>
+        <v>1.026735678627482</v>
       </c>
       <c r="D8">
-        <v>1.022946144818317</v>
+        <v>1.032060413802893</v>
       </c>
       <c r="E8">
-        <v>1.009957802871689</v>
+        <v>1.049469471902185</v>
       </c>
       <c r="F8">
-        <v>1.014062158839532</v>
+        <v>1.053969536142555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046389601805706</v>
+        <v>1.034381482016016</v>
       </c>
       <c r="J8">
-        <v>1.027145586428299</v>
+        <v>1.031777624927771</v>
       </c>
       <c r="K8">
-        <v>1.033824013838488</v>
+        <v>1.034802985775813</v>
       </c>
       <c r="L8">
-        <v>1.021004557883735</v>
+        <v>1.052163873561381</v>
       </c>
       <c r="M8">
-        <v>1.025054959605921</v>
+        <v>1.056651766406289</v>
       </c>
       <c r="N8">
-        <v>1.013064518859689</v>
+        <v>1.014642063807047</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966925998902177</v>
+        <v>1.024946377031185</v>
       </c>
       <c r="D9">
-        <v>1.016333379094943</v>
+        <v>1.030716236682505</v>
       </c>
       <c r="E9">
-        <v>0.9974507149977285</v>
+        <v>1.046714824649397</v>
       </c>
       <c r="F9">
-        <v>1.000955752553001</v>
+        <v>1.051091716817481</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043573574196774</v>
+        <v>1.033979456214411</v>
       </c>
       <c r="J9">
-        <v>1.022362694019924</v>
+        <v>1.030815774451252</v>
       </c>
       <c r="K9">
-        <v>1.029166902516361</v>
+        <v>1.033896147666193</v>
       </c>
       <c r="L9">
-        <v>1.010585288424498</v>
+        <v>1.049842840946168</v>
       </c>
       <c r="M9">
-        <v>1.014033342347603</v>
+        <v>1.05420583685175</v>
       </c>
       <c r="N9">
-        <v>1.011488733081475</v>
+        <v>1.014325128039079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9903928489603638</v>
+        <v>1.023754077491781</v>
       </c>
       <c r="D10">
-        <v>1.011718664345687</v>
+        <v>1.029819867400887</v>
       </c>
       <c r="E10">
-        <v>0.988701975500402</v>
+        <v>1.044883174593509</v>
       </c>
       <c r="F10">
-        <v>0.9917834872237202</v>
+        <v>1.049177773666509</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041544525712558</v>
+        <v>1.033704242765432</v>
       </c>
       <c r="J10">
-        <v>1.018992889616419</v>
+        <v>1.03017159984419</v>
       </c>
       <c r="K10">
-        <v>1.025879509841539</v>
+        <v>1.033287693160913</v>
       </c>
       <c r="L10">
-        <v>1.003278260153947</v>
+        <v>1.048297332003471</v>
       </c>
       <c r="M10">
-        <v>1.00630269515056</v>
+        <v>1.052576941008561</v>
       </c>
       <c r="N10">
-        <v>1.010378794518392</v>
+        <v>1.014112847526259</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9875889654323279</v>
+        <v>1.023237949731908</v>
       </c>
       <c r="D11">
-        <v>1.009667621394204</v>
+        <v>1.029431688769382</v>
       </c>
       <c r="E11">
-        <v>0.9848045600392612</v>
+        <v>1.044091175195591</v>
       </c>
       <c r="F11">
-        <v>0.9876964179390531</v>
+        <v>1.048350098447602</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040627736793811</v>
+        <v>1.033583373485185</v>
       </c>
       <c r="J11">
-        <v>1.017487330487523</v>
+        <v>1.029891978545916</v>
       </c>
       <c r="K11">
-        <v>1.024409494792602</v>
+        <v>1.033023314171897</v>
       </c>
       <c r="L11">
-        <v>1.000018844501197</v>
+        <v>1.047628540328871</v>
       </c>
       <c r="M11">
-        <v>1.00285415256535</v>
+        <v>1.051872013945957</v>
       </c>
       <c r="N11">
-        <v>1.009882978124072</v>
+        <v>1.014020696746699</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9865354707202629</v>
+        <v>1.023046260086721</v>
       </c>
       <c r="D12">
-        <v>1.008897474586612</v>
+        <v>1.029287496702693</v>
       </c>
       <c r="E12">
-        <v>0.9833393970159122</v>
+        <v>1.043797158350464</v>
       </c>
       <c r="F12">
-        <v>0.9861598144011682</v>
+        <v>1.048042823667393</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040281257917821</v>
+        <v>1.033538222454792</v>
       </c>
       <c r="J12">
-        <v>1.016920810952815</v>
+        <v>1.029788012017042</v>
       </c>
       <c r="K12">
-        <v>1.023856175455197</v>
+        <v>1.032924975681148</v>
       </c>
       <c r="L12">
-        <v>0.9987929034015308</v>
+        <v>1.047380184309569</v>
       </c>
       <c r="M12">
-        <v>1.001557062431048</v>
+        <v>1.051610231463272</v>
       </c>
       <c r="N12">
-        <v>1.009696423114111</v>
+        <v>1.013986433300672</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9867620020643324</v>
+        <v>1.02308737709661</v>
       </c>
       <c r="D13">
-        <v>1.009063055239398</v>
+        <v>1.029318426603637</v>
       </c>
       <c r="E13">
-        <v>0.9836544893673428</v>
+        <v>1.043860218418452</v>
       </c>
       <c r="F13">
-        <v>0.9864902769010464</v>
+        <v>1.048108727894364</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040355851164723</v>
+        <v>1.033547919024382</v>
       </c>
       <c r="J13">
-        <v>1.017042666411799</v>
+        <v>1.029810317825432</v>
       </c>
       <c r="K13">
-        <v>1.023975199221183</v>
+        <v>1.032946075776212</v>
       </c>
       <c r="L13">
-        <v>0.99905657743911</v>
+        <v>1.047433454679661</v>
       </c>
       <c r="M13">
-        <v>1.001836039578344</v>
+        <v>1.051666382042786</v>
       </c>
       <c r="N13">
-        <v>1.0097365495236</v>
+        <v>1.013993784484524</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9875021316873792</v>
+        <v>1.023222104125671</v>
       </c>
       <c r="D14">
-        <v>1.009604132262647</v>
+        <v>1.029419769906431</v>
       </c>
       <c r="E14">
-        <v>0.984683812602326</v>
+        <v>1.044066868269675</v>
       </c>
       <c r="F14">
-        <v>0.9875697858217382</v>
+        <v>1.048324695746</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04059921920056</v>
+        <v>1.033579646481183</v>
       </c>
       <c r="J14">
-        <v>1.017440652376678</v>
+        <v>1.029883386730917</v>
       </c>
       <c r="K14">
-        <v>1.024363907750755</v>
+        <v>1.033015188257669</v>
       </c>
       <c r="L14">
-        <v>0.9999178244395485</v>
+        <v>1.047608009861954</v>
       </c>
       <c r="M14">
-        <v>1.00274726989853</v>
+        <v>1.051850373728009</v>
       </c>
       <c r="N14">
-        <v>1.00986760673426</v>
+        <v>1.01401786522251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.987956540778724</v>
+        <v>1.023305117005359</v>
       </c>
       <c r="D15">
-        <v>1.009936396929535</v>
+        <v>1.029482210210357</v>
       </c>
       <c r="E15">
-        <v>0.9853156610017064</v>
+        <v>1.044194214166587</v>
       </c>
       <c r="F15">
-        <v>0.9882324218066126</v>
+        <v>1.048457781930056</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040748372476222</v>
+        <v>1.033599161069594</v>
       </c>
       <c r="J15">
-        <v>1.017684889153988</v>
+        <v>1.02992839330809</v>
       </c>
       <c r="K15">
-        <v>1.024602428653553</v>
+        <v>1.033057752698406</v>
       </c>
       <c r="L15">
-        <v>1.000446417963594</v>
+        <v>1.047715567396345</v>
       </c>
       <c r="M15">
-        <v>1.003306539348406</v>
+        <v>1.051963744853002</v>
       </c>
       <c r="N15">
-        <v>1.009948035961418</v>
+        <v>1.014032697591539</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9905772824274663</v>
+        <v>1.023788334372642</v>
       </c>
       <c r="D16">
-        <v>1.011853641887919</v>
+        <v>1.029845628721646</v>
       </c>
       <c r="E16">
-        <v>0.9889582433044072</v>
+        <v>1.04493576045014</v>
       </c>
       <c r="F16">
-        <v>0.9920522052748766</v>
+        <v>1.049232726318828</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04160454811815</v>
+        <v>1.033712228696011</v>
       </c>
       <c r="J16">
-        <v>1.019091804393807</v>
+        <v>1.0301901429359</v>
       </c>
       <c r="K16">
-        <v>1.02597606427071</v>
+        <v>1.033305219946978</v>
       </c>
       <c r="L16">
-        <v>1.003492490108745</v>
+        <v>1.048341726375507</v>
       </c>
       <c r="M16">
-        <v>1.006529353210891</v>
+        <v>1.052623732977826</v>
       </c>
       <c r="N16">
-        <v>1.010411371290526</v>
+        <v>1.014118958409367</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9922004452792673</v>
+        <v>1.024091483801592</v>
       </c>
       <c r="D17">
-        <v>1.013041885783887</v>
+        <v>1.030073580610195</v>
       </c>
       <c r="E17">
-        <v>0.9912131727581959</v>
+        <v>1.045401211339791</v>
       </c>
       <c r="F17">
-        <v>0.9944165747424133</v>
+        <v>1.04971911562757</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042131238439254</v>
+        <v>1.033782698315424</v>
       </c>
       <c r="J17">
-        <v>1.019961683957546</v>
+        <v>1.030354147581318</v>
       </c>
       <c r="K17">
-        <v>1.026825043447104</v>
+        <v>1.033460205557853</v>
       </c>
       <c r="L17">
-        <v>1.005377041144078</v>
+        <v>1.048734612354271</v>
       </c>
       <c r="M17">
-        <v>1.008523215030225</v>
+        <v>1.053037831564425</v>
       </c>
       <c r="N17">
-        <v>1.010697868376064</v>
+        <v>1.014173005662409</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9931399123605362</v>
+        <v>1.024268319717368</v>
       </c>
       <c r="D18">
-        <v>1.013729895477556</v>
+        <v>1.030206536666077</v>
       </c>
       <c r="E18">
-        <v>0.9925179813544526</v>
+        <v>1.045672808815397</v>
       </c>
       <c r="F18">
-        <v>0.99578461725987</v>
+        <v>1.050002922039653</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042434777003838</v>
+        <v>1.033823637981795</v>
       </c>
       <c r="J18">
-        <v>1.020464614370554</v>
+        <v>1.030449742138028</v>
       </c>
       <c r="K18">
-        <v>1.027315768098142</v>
+        <v>1.033550517772464</v>
       </c>
       <c r="L18">
-        <v>1.006467126200036</v>
+        <v>1.048963817044998</v>
       </c>
       <c r="M18">
-        <v>1.00967651258784</v>
+        <v>1.053279406473439</v>
       </c>
       <c r="N18">
-        <v>1.01086351743185</v>
+        <v>1.014204508114086</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9934590257931687</v>
+        <v>1.024328618527561</v>
       </c>
       <c r="D19">
-        <v>1.013963639074897</v>
+        <v>1.030251870449292</v>
       </c>
       <c r="E19">
-        <v>0.9929611459491795</v>
+        <v>1.045765434854332</v>
       </c>
       <c r="F19">
-        <v>0.9962492426734035</v>
+        <v>1.05009971031627</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042537659103922</v>
+        <v>1.033837569502175</v>
       </c>
       <c r="J19">
-        <v>1.020635354098715</v>
+        <v>1.030482326092689</v>
       </c>
       <c r="K19">
-        <v>1.027482342903363</v>
+        <v>1.033581296901725</v>
       </c>
       <c r="L19">
-        <v>1.006837292982877</v>
+        <v>1.04904197688793</v>
       </c>
       <c r="M19">
-        <v>1.010068141735256</v>
+        <v>1.053361783774402</v>
       </c>
       <c r="N19">
-        <v>1.010919754850803</v>
+        <v>1.014215245828034</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9920270540410496</v>
+        <v>1.02405895728127</v>
       </c>
       <c r="D20">
-        <v>1.012914925689942</v>
+        <v>1.030049123976659</v>
       </c>
       <c r="E20">
-        <v>0.9909723290343649</v>
+        <v>1.045351261715206</v>
       </c>
       <c r="F20">
-        <v>0.9941640516354836</v>
+        <v>1.049666919931592</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042075110687867</v>
+        <v>1.033775154558299</v>
       </c>
       <c r="J20">
-        <v>1.019868817184432</v>
+        <v>1.030336558315304</v>
       </c>
       <c r="K20">
-        <v>1.02673442050082</v>
+        <v>1.03344358619165</v>
       </c>
       <c r="L20">
-        <v>1.005175798583449</v>
+        <v>1.048692455176619</v>
       </c>
       <c r="M20">
-        <v>1.008310301297726</v>
+        <v>1.052993398757209</v>
       </c>
       <c r="N20">
-        <v>1.010667281664917</v>
+        <v>1.014167209218071</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9872845183026132</v>
+        <v>1.0231824297233</v>
       </c>
       <c r="D21">
-        <v>1.009445030643685</v>
+        <v>1.029389926962337</v>
       </c>
       <c r="E21">
-        <v>0.9843811945578085</v>
+        <v>1.044006010435985</v>
       </c>
       <c r="F21">
-        <v>0.9872524172516934</v>
+        <v>1.048261094168483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040527719136833</v>
+        <v>1.033570310564689</v>
       </c>
       <c r="J21">
-        <v>1.017323659252527</v>
+        <v>1.029861872588424</v>
       </c>
       <c r="K21">
-        <v>1.024249646510034</v>
+        <v>1.032994840110878</v>
       </c>
       <c r="L21">
-        <v>0.9996646373092831</v>
+        <v>1.047556605978288</v>
       </c>
       <c r="M21">
-        <v>1.002479389100475</v>
+        <v>1.051796191143921</v>
       </c>
       <c r="N21">
-        <v>1.009829080395434</v>
+        <v>1.01401077499654</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9842329078992534</v>
+        <v>1.022631456833998</v>
       </c>
       <c r="D22">
-        <v>1.007215163273228</v>
+        <v>1.028975434058025</v>
       </c>
       <c r="E22">
-        <v>0.9801352923301597</v>
+        <v>1.043161163331399</v>
       </c>
       <c r="F22">
-        <v>0.9827992196319627</v>
+        <v>1.047378124770875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0395203184902</v>
+        <v>1.033440043136133</v>
       </c>
       <c r="J22">
-        <v>1.015681079505252</v>
+        <v>1.029562824896136</v>
       </c>
       <c r="K22">
-        <v>1.022645028746129</v>
+        <v>1.032711907169759</v>
       </c>
       <c r="L22">
-        <v>0.9961108184708759</v>
+        <v>1.046842816584877</v>
       </c>
       <c r="M22">
-        <v>0.9987193059366066</v>
+        <v>1.051043799186007</v>
       </c>
       <c r="N22">
-        <v>1.009288205050685</v>
+        <v>1.013912218882119</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9858574445918573</v>
+        <v>1.022923524785498</v>
       </c>
       <c r="D23">
-        <v>1.008401954099134</v>
+        <v>1.029195166895507</v>
       </c>
       <c r="E23">
-        <v>0.9823961620497192</v>
+        <v>1.04360894150395</v>
       </c>
       <c r="F23">
-        <v>0.9851705478595755</v>
+        <v>1.047846115765801</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040057702238761</v>
+        <v>1.033509239866799</v>
       </c>
       <c r="J23">
-        <v>1.016555966424524</v>
+        <v>1.029721411750252</v>
       </c>
       <c r="K23">
-        <v>1.023499785005549</v>
+        <v>1.032861969686099</v>
       </c>
       <c r="L23">
-        <v>0.9980035003018328</v>
+        <v>1.047221175569109</v>
       </c>
       <c r="M23">
-        <v>1.00072184277118</v>
+        <v>1.051442624376573</v>
       </c>
       <c r="N23">
-        <v>1.009576283627928</v>
+        <v>1.01396448417367</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9921054245837307</v>
+        <v>1.02407365457263</v>
       </c>
       <c r="D24">
-        <v>1.012972309142315</v>
+        <v>1.030060174890467</v>
       </c>
       <c r="E24">
-        <v>0.9910811881709319</v>
+        <v>1.045373831466977</v>
       </c>
       <c r="F24">
-        <v>0.9942781900346053</v>
+        <v>1.049690504598972</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042100483732305</v>
+        <v>1.03377856376443</v>
       </c>
       <c r="J24">
-        <v>1.019910793428121</v>
+        <v>1.030344506353285</v>
       </c>
       <c r="K24">
-        <v>1.026775382903247</v>
+        <v>1.033451096040699</v>
       </c>
       <c r="L24">
-        <v>1.005266759617755</v>
+        <v>1.04871150406379</v>
       </c>
       <c r="M24">
-        <v>1.008406537718341</v>
+        <v>1.053013475911887</v>
       </c>
       <c r="N24">
-        <v>1.010681106987041</v>
+        <v>1.014169828450991</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9990713804552946</v>
+        <v>1.025408860006004</v>
       </c>
       <c r="D25">
-        <v>1.018078032760711</v>
+        <v>1.031063789503175</v>
       </c>
       <c r="E25">
-        <v>1.000752772383342</v>
+        <v>1.047426121602261</v>
       </c>
       <c r="F25">
-        <v>1.004416792624532</v>
+        <v>1.051834888267205</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044327619222169</v>
+        <v>1.034084660747488</v>
       </c>
       <c r="J25">
-        <v>1.023630036817554</v>
+        <v>1.031064958094759</v>
       </c>
       <c r="K25">
-        <v>1.030402045883556</v>
+        <v>1.034131278122066</v>
       </c>
       <c r="L25">
-        <v>1.013339413758985</v>
+        <v>1.050442556021786</v>
       </c>
       <c r="M25">
-        <v>1.016946928334137</v>
+        <v>1.054837862709662</v>
       </c>
       <c r="N25">
-        <v>1.011906230499524</v>
+        <v>1.01440723938043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026474207863608</v>
+        <v>1.004417367661285</v>
       </c>
       <c r="D2">
-        <v>1.031864070389793</v>
+        <v>1.022002710812837</v>
       </c>
       <c r="E2">
-        <v>1.049066468113903</v>
+        <v>1.00817443094084</v>
       </c>
       <c r="F2">
-        <v>1.053548558217059</v>
+        <v>1.012193826497629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03432358770371</v>
+        <v>1.045995095848454</v>
       </c>
       <c r="J2">
-        <v>1.031637448183044</v>
+        <v>1.026466754016372</v>
       </c>
       <c r="K2">
-        <v>1.034670957818054</v>
+        <v>1.033163792612963</v>
       </c>
       <c r="L2">
-        <v>1.051824561480208</v>
+        <v>1.019521045659124</v>
       </c>
       <c r="M2">
-        <v>1.056294221939822</v>
+        <v>1.023485856151487</v>
       </c>
       <c r="N2">
-        <v>1.014595877209362</v>
+        <v>1.012840841228203</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027247949604007</v>
+        <v>1.008185942306161</v>
       </c>
       <c r="D3">
-        <v>1.032445002752774</v>
+        <v>1.024772155233084</v>
       </c>
       <c r="E3">
-        <v>1.050259521086883</v>
+        <v>1.0134095242944</v>
       </c>
       <c r="F3">
-        <v>1.05479477476538</v>
+        <v>1.017677806354685</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034494033626405</v>
+        <v>1.047145714731287</v>
       </c>
       <c r="J3">
-        <v>1.032051870079746</v>
+        <v>1.028455910821894</v>
       </c>
       <c r="K3">
-        <v>1.035061152948912</v>
+        <v>1.035097587274839</v>
       </c>
       <c r="L3">
-        <v>1.052828801864592</v>
+        <v>1.023873655324353</v>
       </c>
       <c r="M3">
-        <v>1.057352396207918</v>
+        <v>1.028089384557696</v>
       </c>
       <c r="N3">
-        <v>1.014732421722262</v>
+        <v>1.013496299540842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027748699526991</v>
+        <v>1.010574789622181</v>
       </c>
       <c r="D4">
-        <v>1.03282082991619</v>
+        <v>1.026528695403024</v>
       </c>
       <c r="E4">
-        <v>1.05103244487655</v>
+        <v>1.016730637423425</v>
       </c>
       <c r="F4">
-        <v>1.055602063799782</v>
+        <v>1.021155967418563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034602914682867</v>
+        <v>1.047863341131998</v>
       </c>
       <c r="J4">
-        <v>1.032319442113542</v>
+        <v>1.029711805523997</v>
       </c>
       <c r="K4">
-        <v>1.035312861085237</v>
+        <v>1.036317147928619</v>
       </c>
       <c r="L4">
-        <v>1.053478979173613</v>
+        <v>1.02663124634862</v>
       </c>
       <c r="M4">
-        <v>1.058037447087229</v>
+        <v>1.031005591525583</v>
       </c>
       <c r="N4">
-        <v>1.014820577475987</v>
+        <v>1.013910173285045</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027959234343575</v>
+        <v>1.011567540454725</v>
       </c>
       <c r="D5">
-        <v>1.032978808199847</v>
+        <v>1.027258881622394</v>
       </c>
       <c r="E5">
-        <v>1.051357607312648</v>
+        <v>1.018111614066409</v>
       </c>
       <c r="F5">
-        <v>1.055941664940318</v>
+        <v>1.022602042377872</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034648350334723</v>
+        <v>1.048158718587604</v>
       </c>
       <c r="J5">
-        <v>1.032431788045931</v>
+        <v>1.030232507237487</v>
       </c>
       <c r="K5">
-        <v>1.035418492810136</v>
+        <v>1.036822440982103</v>
       </c>
       <c r="L5">
-        <v>1.053752401911521</v>
+        <v>1.027777007486697</v>
       </c>
       <c r="M5">
-        <v>1.058325524538406</v>
+        <v>1.032217164991303</v>
       </c>
       <c r="N5">
-        <v>1.014857590514149</v>
+        <v>1.014081775836722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027994585172886</v>
+        <v>1.011733562573013</v>
       </c>
       <c r="D6">
-        <v>1.033005332263618</v>
+        <v>1.027381005011885</v>
       </c>
       <c r="E6">
-        <v>1.051412216742523</v>
+        <v>1.018342612265206</v>
       </c>
       <c r="F6">
-        <v>1.055998698196115</v>
+        <v>1.022843917562911</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034655959344111</v>
+        <v>1.04820794716558</v>
       </c>
       <c r="J6">
-        <v>1.032450643107054</v>
+        <v>1.030319514235779</v>
       </c>
       <c r="K6">
-        <v>1.035436217882403</v>
+        <v>1.036906852628045</v>
       </c>
       <c r="L6">
-        <v>1.053798315976784</v>
+        <v>1.027968608013175</v>
       </c>
       <c r="M6">
-        <v>1.058373898832133</v>
+        <v>1.032419765444778</v>
       </c>
       <c r="N6">
-        <v>1.014863802363227</v>
+        <v>1.014110450319884</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027751512628389</v>
+        <v>1.010588099596337</v>
       </c>
       <c r="D7">
-        <v>1.032822940908116</v>
+        <v>1.026538484359124</v>
       </c>
       <c r="E7">
-        <v>1.051036788827068</v>
+        <v>1.016749149050955</v>
       </c>
       <c r="F7">
-        <v>1.055606600714195</v>
+        <v>1.021175352484338</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034603523124991</v>
+        <v>1.047867312619962</v>
       </c>
       <c r="J7">
-        <v>1.032320943841941</v>
+        <v>1.029718791501143</v>
       </c>
       <c r="K7">
-        <v>1.035314273275141</v>
+        <v>1.036323928555015</v>
       </c>
       <c r="L7">
-        <v>1.053482632314519</v>
+        <v>1.026646608515226</v>
       </c>
       <c r="M7">
-        <v>1.058041296069351</v>
+        <v>1.031021836462962</v>
       </c>
       <c r="N7">
-        <v>1.014821072233609</v>
+        <v>1.013912475554733</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026735678627482</v>
+        <v>1.005701489369608</v>
       </c>
       <c r="D8">
-        <v>1.032060413802893</v>
+        <v>1.022946144818317</v>
       </c>
       <c r="E8">
-        <v>1.049469471902185</v>
+        <v>1.009957802871689</v>
       </c>
       <c r="F8">
-        <v>1.053969536142555</v>
+        <v>1.014062158839532</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034381482016016</v>
+        <v>1.046389601805706</v>
       </c>
       <c r="J8">
-        <v>1.031777624927771</v>
+        <v>1.027145586428299</v>
       </c>
       <c r="K8">
-        <v>1.034802985775813</v>
+        <v>1.033824013838488</v>
       </c>
       <c r="L8">
-        <v>1.052163873561381</v>
+        <v>1.021004557883735</v>
       </c>
       <c r="M8">
-        <v>1.056651766406289</v>
+        <v>1.025054959605921</v>
       </c>
       <c r="N8">
-        <v>1.014642063807047</v>
+        <v>1.013064518859689</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024946377031185</v>
+        <v>0.9966925998902181</v>
       </c>
       <c r="D9">
-        <v>1.030716236682505</v>
+        <v>1.016333379094943</v>
       </c>
       <c r="E9">
-        <v>1.046714824649397</v>
+        <v>0.9974507149977282</v>
       </c>
       <c r="F9">
-        <v>1.051091716817481</v>
+        <v>1.000955752553</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033979456214411</v>
+        <v>1.043573574196775</v>
       </c>
       <c r="J9">
-        <v>1.030815774451252</v>
+        <v>1.022362694019925</v>
       </c>
       <c r="K9">
-        <v>1.033896147666193</v>
+        <v>1.029166902516362</v>
       </c>
       <c r="L9">
-        <v>1.049842840946168</v>
+        <v>1.010585288424497</v>
       </c>
       <c r="M9">
-        <v>1.05420583685175</v>
+        <v>1.014033342347603</v>
       </c>
       <c r="N9">
-        <v>1.014325128039079</v>
+        <v>1.011488733081475</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023754077491781</v>
+        <v>0.9903928489603634</v>
       </c>
       <c r="D10">
-        <v>1.029819867400887</v>
+        <v>1.011718664345687</v>
       </c>
       <c r="E10">
-        <v>1.044883174593509</v>
+        <v>0.9887019755004015</v>
       </c>
       <c r="F10">
-        <v>1.049177773666509</v>
+        <v>0.9917834872237196</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033704242765432</v>
+        <v>1.041544525712558</v>
       </c>
       <c r="J10">
-        <v>1.03017159984419</v>
+        <v>1.018992889616418</v>
       </c>
       <c r="K10">
-        <v>1.033287693160913</v>
+        <v>1.025879509841538</v>
       </c>
       <c r="L10">
-        <v>1.048297332003471</v>
+        <v>1.003278260153947</v>
       </c>
       <c r="M10">
-        <v>1.052576941008561</v>
+        <v>1.006302695150559</v>
       </c>
       <c r="N10">
-        <v>1.014112847526259</v>
+        <v>1.010378794518392</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023237949731908</v>
+        <v>0.9875889654323277</v>
       </c>
       <c r="D11">
-        <v>1.029431688769382</v>
+        <v>1.009667621394204</v>
       </c>
       <c r="E11">
-        <v>1.044091175195591</v>
+        <v>0.9848045600392612</v>
       </c>
       <c r="F11">
-        <v>1.048350098447602</v>
+        <v>0.9876964179390527</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033583373485185</v>
+        <v>1.040627736793811</v>
       </c>
       <c r="J11">
-        <v>1.029891978545916</v>
+        <v>1.017487330487523</v>
       </c>
       <c r="K11">
-        <v>1.033023314171897</v>
+        <v>1.024409494792602</v>
       </c>
       <c r="L11">
-        <v>1.047628540328871</v>
+        <v>1.000018844501197</v>
       </c>
       <c r="M11">
-        <v>1.051872013945957</v>
+        <v>1.00285415256535</v>
       </c>
       <c r="N11">
-        <v>1.014020696746699</v>
+        <v>1.009882978124071</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023046260086721</v>
+        <v>0.9865354707202625</v>
       </c>
       <c r="D12">
-        <v>1.029287496702693</v>
+        <v>1.008897474586611</v>
       </c>
       <c r="E12">
-        <v>1.043797158350464</v>
+        <v>0.983339397015912</v>
       </c>
       <c r="F12">
-        <v>1.048042823667393</v>
+        <v>0.9861598144011676</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033538222454792</v>
+        <v>1.040281257917821</v>
       </c>
       <c r="J12">
-        <v>1.029788012017042</v>
+        <v>1.016920810952814</v>
       </c>
       <c r="K12">
-        <v>1.032924975681148</v>
+        <v>1.023856175455196</v>
       </c>
       <c r="L12">
-        <v>1.047380184309569</v>
+        <v>0.9987929034015303</v>
       </c>
       <c r="M12">
-        <v>1.051610231463272</v>
+        <v>1.001557062431048</v>
       </c>
       <c r="N12">
-        <v>1.013986433300672</v>
+        <v>1.009696423114111</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02308737709661</v>
+        <v>0.986762002064332</v>
       </c>
       <c r="D13">
-        <v>1.029318426603637</v>
+        <v>1.009063055239397</v>
       </c>
       <c r="E13">
-        <v>1.043860218418452</v>
+        <v>0.9836544893673427</v>
       </c>
       <c r="F13">
-        <v>1.048108727894364</v>
+        <v>0.986490276901046</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033547919024382</v>
+        <v>1.040355851164722</v>
       </c>
       <c r="J13">
-        <v>1.029810317825432</v>
+        <v>1.017042666411798</v>
       </c>
       <c r="K13">
-        <v>1.032946075776212</v>
+        <v>1.023975199221182</v>
       </c>
       <c r="L13">
-        <v>1.047433454679661</v>
+        <v>0.9990565774391098</v>
       </c>
       <c r="M13">
-        <v>1.051666382042786</v>
+        <v>1.001836039578344</v>
       </c>
       <c r="N13">
-        <v>1.013993784484524</v>
+        <v>1.0097365495236</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023222104125671</v>
+        <v>0.9875021316873793</v>
       </c>
       <c r="D14">
-        <v>1.029419769906431</v>
+        <v>1.009604132262648</v>
       </c>
       <c r="E14">
-        <v>1.044066868269675</v>
+        <v>0.9846838126023257</v>
       </c>
       <c r="F14">
-        <v>1.048324695746</v>
+        <v>0.987569785821738</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033579646481183</v>
+        <v>1.04059921920056</v>
       </c>
       <c r="J14">
-        <v>1.029883386730917</v>
+        <v>1.017440652376678</v>
       </c>
       <c r="K14">
-        <v>1.033015188257669</v>
+        <v>1.024363907750755</v>
       </c>
       <c r="L14">
-        <v>1.047608009861954</v>
+        <v>0.9999178244395484</v>
       </c>
       <c r="M14">
-        <v>1.051850373728009</v>
+        <v>1.00274726989853</v>
       </c>
       <c r="N14">
-        <v>1.01401786522251</v>
+        <v>1.00986760673426</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023305117005359</v>
+        <v>0.9879565407787235</v>
       </c>
       <c r="D15">
-        <v>1.029482210210357</v>
+        <v>1.009936396929535</v>
       </c>
       <c r="E15">
-        <v>1.044194214166587</v>
+        <v>0.9853156610017065</v>
       </c>
       <c r="F15">
-        <v>1.048457781930056</v>
+        <v>0.9882324218066127</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033599161069594</v>
+        <v>1.040748372476221</v>
       </c>
       <c r="J15">
-        <v>1.02992839330809</v>
+        <v>1.017684889153988</v>
       </c>
       <c r="K15">
-        <v>1.033057752698406</v>
+        <v>1.024602428653553</v>
       </c>
       <c r="L15">
-        <v>1.047715567396345</v>
+        <v>1.000446417963594</v>
       </c>
       <c r="M15">
-        <v>1.051963744853002</v>
+        <v>1.003306539348406</v>
       </c>
       <c r="N15">
-        <v>1.014032697591539</v>
+        <v>1.009948035961418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023788334372642</v>
+        <v>0.9905772824274665</v>
       </c>
       <c r="D16">
-        <v>1.029845628721646</v>
+        <v>1.01185364188792</v>
       </c>
       <c r="E16">
-        <v>1.04493576045014</v>
+        <v>0.9889582433044074</v>
       </c>
       <c r="F16">
-        <v>1.049232726318828</v>
+        <v>0.992052205274877</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033712228696011</v>
+        <v>1.041604548118151</v>
       </c>
       <c r="J16">
-        <v>1.0301901429359</v>
+        <v>1.019091804393807</v>
       </c>
       <c r="K16">
-        <v>1.033305219946978</v>
+        <v>1.025976064270711</v>
       </c>
       <c r="L16">
-        <v>1.048341726375507</v>
+        <v>1.003492490108745</v>
       </c>
       <c r="M16">
-        <v>1.052623732977826</v>
+        <v>1.006529353210891</v>
       </c>
       <c r="N16">
-        <v>1.014118958409367</v>
+        <v>1.010411371290526</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024091483801592</v>
+        <v>0.9922004452792675</v>
       </c>
       <c r="D17">
-        <v>1.030073580610195</v>
+        <v>1.013041885783887</v>
       </c>
       <c r="E17">
-        <v>1.045401211339791</v>
+        <v>0.9912131727581964</v>
       </c>
       <c r="F17">
-        <v>1.04971911562757</v>
+        <v>0.9944165747424136</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033782698315424</v>
+        <v>1.042131238439254</v>
       </c>
       <c r="J17">
-        <v>1.030354147581318</v>
+        <v>1.019961683957546</v>
       </c>
       <c r="K17">
-        <v>1.033460205557853</v>
+        <v>1.026825043447104</v>
       </c>
       <c r="L17">
-        <v>1.048734612354271</v>
+        <v>1.005377041144078</v>
       </c>
       <c r="M17">
-        <v>1.053037831564425</v>
+        <v>1.008523215030226</v>
       </c>
       <c r="N17">
-        <v>1.014173005662409</v>
+        <v>1.010697868376064</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024268319717368</v>
+        <v>0.9931399123605353</v>
       </c>
       <c r="D18">
-        <v>1.030206536666077</v>
+        <v>1.013729895477555</v>
       </c>
       <c r="E18">
-        <v>1.045672808815397</v>
+        <v>0.9925179813544528</v>
       </c>
       <c r="F18">
-        <v>1.050002922039653</v>
+        <v>0.9957846172598701</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033823637981795</v>
+        <v>1.042434777003838</v>
       </c>
       <c r="J18">
-        <v>1.030449742138028</v>
+        <v>1.020464614370553</v>
       </c>
       <c r="K18">
-        <v>1.033550517772464</v>
+        <v>1.027315768098142</v>
       </c>
       <c r="L18">
-        <v>1.048963817044998</v>
+        <v>1.006467126200036</v>
       </c>
       <c r="M18">
-        <v>1.053279406473439</v>
+        <v>1.00967651258784</v>
       </c>
       <c r="N18">
-        <v>1.014204508114086</v>
+        <v>1.01086351743185</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024328618527561</v>
+        <v>0.9934590257931682</v>
       </c>
       <c r="D19">
-        <v>1.030251870449292</v>
+        <v>1.013963639074896</v>
       </c>
       <c r="E19">
-        <v>1.045765434854332</v>
+        <v>0.9929611459491795</v>
       </c>
       <c r="F19">
-        <v>1.05009971031627</v>
+        <v>0.9962492426734035</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033837569502175</v>
+        <v>1.042537659103922</v>
       </c>
       <c r="J19">
-        <v>1.030482326092689</v>
+        <v>1.020635354098714</v>
       </c>
       <c r="K19">
-        <v>1.033581296901725</v>
+        <v>1.027482342903362</v>
       </c>
       <c r="L19">
-        <v>1.04904197688793</v>
+        <v>1.006837292982877</v>
       </c>
       <c r="M19">
-        <v>1.053361783774402</v>
+        <v>1.010068141735256</v>
       </c>
       <c r="N19">
-        <v>1.014215245828034</v>
+        <v>1.010919754850803</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02405895728127</v>
+        <v>0.9920270540410495</v>
       </c>
       <c r="D20">
-        <v>1.030049123976659</v>
+        <v>1.012914925689942</v>
       </c>
       <c r="E20">
-        <v>1.045351261715206</v>
+        <v>0.9909723290343634</v>
       </c>
       <c r="F20">
-        <v>1.049666919931592</v>
+        <v>0.9941640516354819</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033775154558299</v>
+        <v>1.042075110687867</v>
       </c>
       <c r="J20">
-        <v>1.030336558315304</v>
+        <v>1.019868817184432</v>
       </c>
       <c r="K20">
-        <v>1.03344358619165</v>
+        <v>1.026734420500819</v>
       </c>
       <c r="L20">
-        <v>1.048692455176619</v>
+        <v>1.005175798583448</v>
       </c>
       <c r="M20">
-        <v>1.052993398757209</v>
+        <v>1.008310301297724</v>
       </c>
       <c r="N20">
-        <v>1.014167209218071</v>
+        <v>1.010667281664917</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0231824297233</v>
+        <v>0.9872845183026127</v>
       </c>
       <c r="D21">
-        <v>1.029389926962337</v>
+        <v>1.009445030643685</v>
       </c>
       <c r="E21">
-        <v>1.044006010435985</v>
+        <v>0.9843811945578081</v>
       </c>
       <c r="F21">
-        <v>1.048261094168483</v>
+        <v>0.9872524172516928</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033570310564689</v>
+        <v>1.040527719136833</v>
       </c>
       <c r="J21">
-        <v>1.029861872588424</v>
+        <v>1.017323659252527</v>
       </c>
       <c r="K21">
-        <v>1.032994840110878</v>
+        <v>1.024249646510034</v>
       </c>
       <c r="L21">
-        <v>1.047556605978288</v>
+        <v>0.9996646373092827</v>
       </c>
       <c r="M21">
-        <v>1.051796191143921</v>
+        <v>1.002479389100474</v>
       </c>
       <c r="N21">
-        <v>1.01401077499654</v>
+        <v>1.009829080395434</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022631456833998</v>
+        <v>0.9842329078992536</v>
       </c>
       <c r="D22">
-        <v>1.028975434058025</v>
+        <v>1.007215163273228</v>
       </c>
       <c r="E22">
-        <v>1.043161163331399</v>
+        <v>0.9801352923301599</v>
       </c>
       <c r="F22">
-        <v>1.047378124770875</v>
+        <v>0.9827992196319633</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033440043136133</v>
+        <v>1.0395203184902</v>
       </c>
       <c r="J22">
-        <v>1.029562824896136</v>
+        <v>1.015681079505252</v>
       </c>
       <c r="K22">
-        <v>1.032711907169759</v>
+        <v>1.022645028746129</v>
       </c>
       <c r="L22">
-        <v>1.046842816584877</v>
+        <v>0.9961108184708762</v>
       </c>
       <c r="M22">
-        <v>1.051043799186007</v>
+        <v>0.9987193059366071</v>
       </c>
       <c r="N22">
-        <v>1.013912218882119</v>
+        <v>1.009288205050685</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022923524785498</v>
+        <v>0.9858574445918569</v>
       </c>
       <c r="D23">
-        <v>1.029195166895507</v>
+        <v>1.008401954099134</v>
       </c>
       <c r="E23">
-        <v>1.04360894150395</v>
+        <v>0.9823961620497189</v>
       </c>
       <c r="F23">
-        <v>1.047846115765801</v>
+        <v>0.985170547859575</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033509239866799</v>
+        <v>1.04005770223876</v>
       </c>
       <c r="J23">
-        <v>1.029721411750252</v>
+        <v>1.016555966424523</v>
       </c>
       <c r="K23">
-        <v>1.032861969686099</v>
+        <v>1.023499785005548</v>
       </c>
       <c r="L23">
-        <v>1.047221175569109</v>
+        <v>0.9980035003018325</v>
       </c>
       <c r="M23">
-        <v>1.051442624376573</v>
+        <v>1.000721842771179</v>
       </c>
       <c r="N23">
-        <v>1.01396448417367</v>
+        <v>1.009576283627928</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02407365457263</v>
+        <v>0.9921054245837302</v>
       </c>
       <c r="D24">
-        <v>1.030060174890467</v>
+        <v>1.012972309142314</v>
       </c>
       <c r="E24">
-        <v>1.045373831466977</v>
+        <v>0.9910811881709314</v>
       </c>
       <c r="F24">
-        <v>1.049690504598972</v>
+        <v>0.9942781900346043</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03377856376443</v>
+        <v>1.042100483732304</v>
       </c>
       <c r="J24">
-        <v>1.030344506353285</v>
+        <v>1.01991079342812</v>
       </c>
       <c r="K24">
-        <v>1.033451096040699</v>
+        <v>1.026775382903246</v>
       </c>
       <c r="L24">
-        <v>1.04871150406379</v>
+        <v>1.005266759617755</v>
       </c>
       <c r="M24">
-        <v>1.053013475911887</v>
+        <v>1.00840653771834</v>
       </c>
       <c r="N24">
-        <v>1.014169828450991</v>
+        <v>1.010681106987041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025408860006004</v>
+        <v>0.999071380455294</v>
       </c>
       <c r="D25">
-        <v>1.031063789503175</v>
+        <v>1.01807803276071</v>
       </c>
       <c r="E25">
-        <v>1.047426121602261</v>
+        <v>1.000752772383342</v>
       </c>
       <c r="F25">
-        <v>1.051834888267205</v>
+        <v>1.004416792624532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034084660747488</v>
+        <v>1.044327619222168</v>
       </c>
       <c r="J25">
-        <v>1.031064958094759</v>
+        <v>1.023630036817554</v>
       </c>
       <c r="K25">
-        <v>1.034131278122066</v>
+        <v>1.030402045883555</v>
       </c>
       <c r="L25">
-        <v>1.050442556021786</v>
+        <v>1.013339413758985</v>
       </c>
       <c r="M25">
-        <v>1.054837862709662</v>
+        <v>1.016946928334137</v>
       </c>
       <c r="N25">
-        <v>1.01440723938043</v>
+        <v>1.011906230499524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004417367661285</v>
+        <v>1.005851312491959</v>
       </c>
       <c r="D2">
-        <v>1.022002710812837</v>
+        <v>1.02373937348942</v>
       </c>
       <c r="E2">
-        <v>1.00817443094084</v>
+        <v>1.019875271255898</v>
       </c>
       <c r="F2">
-        <v>1.012193826497629</v>
+        <v>1.027402894304214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045995095848454</v>
+        <v>1.0439557453431</v>
       </c>
       <c r="J2">
-        <v>1.026466754016372</v>
+        <v>1.027858409288485</v>
       </c>
       <c r="K2">
-        <v>1.033163792612963</v>
+        <v>1.03487759876369</v>
       </c>
       <c r="L2">
-        <v>1.019521045659124</v>
+        <v>1.031064485775656</v>
       </c>
       <c r="M2">
-        <v>1.023485856151487</v>
+        <v>1.03849322070618</v>
       </c>
       <c r="N2">
-        <v>1.012840841228203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013264855833607</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039037191128541</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035731726774547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008185942306161</v>
+        <v>1.008947915383821</v>
       </c>
       <c r="D3">
-        <v>1.024772155233084</v>
+        <v>1.025704878566787</v>
       </c>
       <c r="E3">
-        <v>1.0134095242944</v>
+        <v>1.023261104661068</v>
       </c>
       <c r="F3">
-        <v>1.017677806354685</v>
+        <v>1.030498950932698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047145714731287</v>
+        <v>1.044524446960717</v>
       </c>
       <c r="J3">
-        <v>1.028455910821894</v>
+        <v>1.029197588165853</v>
       </c>
       <c r="K3">
-        <v>1.035097587274839</v>
+        <v>1.036019094612086</v>
       </c>
       <c r="L3">
-        <v>1.023873655324353</v>
+        <v>1.033604760962306</v>
       </c>
       <c r="M3">
-        <v>1.028089384557696</v>
+        <v>1.040755915328005</v>
       </c>
       <c r="N3">
-        <v>1.013496299540842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01371213023826</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040827963624823</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036536192335242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010574789622181</v>
+        <v>1.010918566591233</v>
       </c>
       <c r="D4">
-        <v>1.026528695403024</v>
+        <v>1.026959493013044</v>
       </c>
       <c r="E4">
-        <v>1.016730637423425</v>
+        <v>1.025421445516855</v>
       </c>
       <c r="F4">
-        <v>1.021155967418563</v>
+        <v>1.032475294693178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047863341131998</v>
+        <v>1.044878527122145</v>
       </c>
       <c r="J4">
-        <v>1.029711805523997</v>
+        <v>1.0300470388347</v>
       </c>
       <c r="K4">
-        <v>1.036317147928619</v>
+        <v>1.036743074822716</v>
       </c>
       <c r="L4">
-        <v>1.02663124634862</v>
+        <v>1.035222440061941</v>
       </c>
       <c r="M4">
-        <v>1.031005591525583</v>
+        <v>1.042196955391087</v>
       </c>
       <c r="N4">
-        <v>1.013910173285045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013995892153589</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041968448797265</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037049010367289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011567540454725</v>
+        <v>1.011741648952687</v>
       </c>
       <c r="D5">
-        <v>1.027258881622394</v>
+        <v>1.027486499710607</v>
       </c>
       <c r="E5">
-        <v>1.018111614066409</v>
+        <v>1.026323455375079</v>
       </c>
       <c r="F5">
-        <v>1.022602042377872</v>
+        <v>1.033300682069529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048158718587604</v>
+        <v>1.045025835532045</v>
       </c>
       <c r="J5">
-        <v>1.030232507237487</v>
+        <v>1.030402416681001</v>
       </c>
       <c r="K5">
-        <v>1.036822440982103</v>
+        <v>1.037047553471529</v>
       </c>
       <c r="L5">
-        <v>1.027777007486697</v>
+        <v>1.035897326161395</v>
       </c>
       <c r="M5">
-        <v>1.032217164991303</v>
+        <v>1.042798193027253</v>
       </c>
       <c r="N5">
-        <v>1.014081775836722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014114798893953</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042444286951527</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037271500306568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011733562573013</v>
+        <v>1.01188224833695</v>
       </c>
       <c r="D6">
-        <v>1.027381005011885</v>
+        <v>1.027579135334194</v>
       </c>
       <c r="E6">
-        <v>1.018342612265206</v>
+        <v>1.026475599713159</v>
       </c>
       <c r="F6">
-        <v>1.022843917562911</v>
+        <v>1.03343990541245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04820794716558</v>
+        <v>1.045052502136423</v>
       </c>
       <c r="J6">
-        <v>1.030319514235779</v>
+        <v>1.030464632308128</v>
       </c>
       <c r="K6">
-        <v>1.036906852628045</v>
+        <v>1.037102811843329</v>
       </c>
       <c r="L6">
-        <v>1.027968608013175</v>
+        <v>1.03601138183984</v>
       </c>
       <c r="M6">
-        <v>1.032419765444778</v>
+        <v>1.042899821513896</v>
       </c>
       <c r="N6">
-        <v>1.014110450319884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014135834562943</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042524718864066</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037319349415064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,81 +698,105 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010588099596337</v>
+        <v>1.010937227623964</v>
       </c>
       <c r="D7">
-        <v>1.026538484359124</v>
+        <v>1.026978282814408</v>
       </c>
       <c r="E7">
-        <v>1.016749149050955</v>
+        <v>1.025436508300487</v>
       </c>
       <c r="F7">
-        <v>1.021175352484338</v>
+        <v>1.032489034199348</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047867312619962</v>
+        <v>1.04488619944268</v>
       </c>
       <c r="J7">
-        <v>1.029718791501143</v>
+        <v>1.030059246420942</v>
       </c>
       <c r="K7">
-        <v>1.036323928555015</v>
+        <v>1.036758756358281</v>
       </c>
       <c r="L7">
-        <v>1.026646608515226</v>
+        <v>1.035234430239156</v>
       </c>
       <c r="M7">
-        <v>1.031021836462962</v>
+        <v>1.042207666362907</v>
       </c>
       <c r="N7">
-        <v>1.013912475554733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01400056874187</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041976925796038</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037080283458031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.005701489369608</v>
+        <v>1.006914217026142</v>
       </c>
       <c r="D8">
-        <v>1.022946144818317</v>
+        <v>1.024421653532396</v>
       </c>
       <c r="E8">
-        <v>1.009957802871689</v>
+        <v>1.021029762700979</v>
       </c>
       <c r="F8">
-        <v>1.014062158839532</v>
+        <v>1.028458252548959</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046389601805706</v>
+        <v>1.044157849505851</v>
       </c>
       <c r="J8">
-        <v>1.027145586428299</v>
+        <v>1.028323736170605</v>
       </c>
       <c r="K8">
-        <v>1.033824013838488</v>
+        <v>1.035280675140471</v>
       </c>
       <c r="L8">
-        <v>1.021004557883735</v>
+        <v>1.031932212309051</v>
       </c>
       <c r="M8">
-        <v>1.025054959605921</v>
+        <v>1.039266057537767</v>
       </c>
       <c r="N8">
-        <v>1.013064518859689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013421029687212</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039648840647434</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036039727455722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9966925998902181</v>
+        <v>0.9995507998652543</v>
       </c>
       <c r="D9">
-        <v>1.016333379094943</v>
+        <v>1.019762553566564</v>
       </c>
       <c r="E9">
-        <v>0.9974507149977282</v>
+        <v>1.013016408498538</v>
       </c>
       <c r="F9">
-        <v>1.000955752553</v>
+        <v>1.02113613244278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043573574196775</v>
+        <v>1.04275720682143</v>
       </c>
       <c r="J9">
-        <v>1.022362694019925</v>
+        <v>1.025119430525058</v>
       </c>
       <c r="K9">
-        <v>1.029166902516362</v>
+        <v>1.032542932520517</v>
       </c>
       <c r="L9">
-        <v>1.010585288424497</v>
+        <v>1.025901775413608</v>
       </c>
       <c r="M9">
-        <v>1.014033342347603</v>
+        <v>1.033895351815737</v>
       </c>
       <c r="N9">
-        <v>1.011488733081475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012350465076122</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03539826949963</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034100768081996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9903928489603634</v>
+        <v>0.9945014656641494</v>
       </c>
       <c r="D10">
-        <v>1.011718664345687</v>
+        <v>1.016597518090158</v>
       </c>
       <c r="E10">
-        <v>0.9887019755004015</v>
+        <v>1.007712196158719</v>
       </c>
       <c r="F10">
-        <v>0.9917834872237196</v>
+        <v>1.016323162650484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041544525712558</v>
+        <v>1.041771386702444</v>
       </c>
       <c r="J10">
-        <v>1.018992889616418</v>
+        <v>1.022934952128788</v>
       </c>
       <c r="K10">
-        <v>1.025879509841538</v>
+        <v>1.030673429015219</v>
       </c>
       <c r="L10">
-        <v>1.003278260153947</v>
+        <v>1.021943586809383</v>
       </c>
       <c r="M10">
-        <v>1.006302695150559</v>
+        <v>1.030403821754236</v>
       </c>
       <c r="N10">
-        <v>1.010378794518392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01162282490104</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032686734828955</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032795779170234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9875889654323277</v>
+        <v>0.9926614240929202</v>
       </c>
       <c r="D11">
-        <v>1.009667621394204</v>
+        <v>1.015497711125087</v>
       </c>
       <c r="E11">
-        <v>0.9848045600392612</v>
+        <v>1.007110969484233</v>
       </c>
       <c r="F11">
-        <v>0.9876964179390527</v>
+        <v>1.016007519832465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040627736793811</v>
+        <v>1.04150938575048</v>
       </c>
       <c r="J11">
-        <v>1.017487330487523</v>
+        <v>1.022342715576532</v>
       </c>
       <c r="K11">
-        <v>1.024409494792602</v>
+        <v>1.030133164072699</v>
       </c>
       <c r="L11">
-        <v>1.000018844501197</v>
+        <v>1.021900017835399</v>
       </c>
       <c r="M11">
-        <v>1.00285415256535</v>
+        <v>1.030633742419141</v>
       </c>
       <c r="N11">
-        <v>1.009882978124071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011440437082098</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03330751913181</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032446744625942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9865354707202625</v>
+        <v>0.9921190452806934</v>
       </c>
       <c r="D12">
-        <v>1.008897474586611</v>
+        <v>1.01519033399345</v>
       </c>
       <c r="E12">
-        <v>0.983339397015912</v>
+        <v>1.007544176001826</v>
       </c>
       <c r="F12">
-        <v>0.9861598144011676</v>
+        <v>1.016564197319335</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040281257917821</v>
+        <v>1.041476226182201</v>
       </c>
       <c r="J12">
-        <v>1.016920810952814</v>
+        <v>1.022260727263963</v>
       </c>
       <c r="K12">
-        <v>1.023856175455196</v>
+        <v>1.030032185053485</v>
       </c>
       <c r="L12">
-        <v>0.9987929034015303</v>
+        <v>1.022528254836751</v>
       </c>
       <c r="M12">
-        <v>1.001557062431048</v>
+        <v>1.031380788210842</v>
       </c>
       <c r="N12">
-        <v>1.009696423114111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011424741176241</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034226361784454</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03237534874082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.986762002064332</v>
+        <v>0.9925447845381633</v>
       </c>
       <c r="D13">
-        <v>1.009063055239397</v>
+        <v>1.015482411072952</v>
       </c>
       <c r="E13">
-        <v>0.9836544893673427</v>
+        <v>1.008806637334692</v>
       </c>
       <c r="F13">
-        <v>0.986490276901046</v>
+        <v>1.017842461164554</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040355851164722</v>
+        <v>1.041625870504548</v>
       </c>
       <c r="J13">
-        <v>1.017042666411798</v>
+        <v>1.022574259664838</v>
       </c>
       <c r="K13">
-        <v>1.023975199221182</v>
+        <v>1.030275825536651</v>
       </c>
       <c r="L13">
-        <v>0.9990565774391098</v>
+        <v>1.023723564863574</v>
       </c>
       <c r="M13">
-        <v>1.001836039578344</v>
+        <v>1.032592715232801</v>
       </c>
       <c r="N13">
-        <v>1.0097365495236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011539899254687</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035462288706999</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032545110543174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875021316873793</v>
+        <v>0.9932807188228581</v>
       </c>
       <c r="D14">
-        <v>1.009604132262648</v>
+        <v>1.015959359787981</v>
       </c>
       <c r="E14">
-        <v>0.9846838126023257</v>
+        <v>1.010053361919256</v>
       </c>
       <c r="F14">
-        <v>0.987569785821738</v>
+        <v>1.019053534169083</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04059921920056</v>
+        <v>1.041813291469485</v>
       </c>
       <c r="J14">
-        <v>1.017440652376678</v>
+        <v>1.022971782010443</v>
       </c>
       <c r="K14">
-        <v>1.024363907750755</v>
+        <v>1.030603036550089</v>
       </c>
       <c r="L14">
-        <v>0.9999178244395484</v>
+        <v>1.024804868259111</v>
       </c>
       <c r="M14">
-        <v>1.00274726989853</v>
+        <v>1.033641366934744</v>
       </c>
       <c r="N14">
-        <v>1.00986760673426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011679559470202</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03646502231836</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032777890247997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9879565407787235</v>
+        <v>0.9936737386475584</v>
       </c>
       <c r="D15">
-        <v>1.009936396929535</v>
+        <v>1.016210537781487</v>
       </c>
       <c r="E15">
-        <v>0.9853156610017065</v>
+        <v>1.010557946499108</v>
       </c>
       <c r="F15">
-        <v>0.9882324218066127</v>
+        <v>1.019529661174485</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040748372476221</v>
+        <v>1.041901389445386</v>
       </c>
       <c r="J15">
-        <v>1.017684889153988</v>
+        <v>1.023159388653149</v>
       </c>
       <c r="K15">
-        <v>1.024602428653553</v>
+        <v>1.030762821297733</v>
       </c>
       <c r="L15">
-        <v>1.000446417963594</v>
+        <v>1.025212627679865</v>
       </c>
       <c r="M15">
-        <v>1.003306539348406</v>
+        <v>1.034022505092586</v>
       </c>
       <c r="N15">
-        <v>1.009948035961418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011743822539543</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036803894828547</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032896754605035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9905772824274665</v>
+        <v>0.9957166013115789</v>
       </c>
       <c r="D16">
-        <v>1.01185364188792</v>
+        <v>1.017485492644771</v>
       </c>
       <c r="E16">
-        <v>0.9889582433044074</v>
+        <v>1.012558092575501</v>
       </c>
       <c r="F16">
-        <v>0.992052205274877</v>
+        <v>1.021344302220494</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041604548118151</v>
+        <v>1.042298129227108</v>
       </c>
       <c r="J16">
-        <v>1.019091804393807</v>
+        <v>1.024023869017123</v>
       </c>
       <c r="K16">
-        <v>1.025976064270711</v>
+        <v>1.03151028601392</v>
       </c>
       <c r="L16">
-        <v>1.003492490108745</v>
+        <v>1.026668226250056</v>
       </c>
       <c r="M16">
-        <v>1.006529353210891</v>
+        <v>1.035303005322161</v>
       </c>
       <c r="N16">
-        <v>1.010411371290526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012030068042408</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037777196114872</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03342842243482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9922004452792675</v>
+        <v>0.9969023921407769</v>
       </c>
       <c r="D17">
-        <v>1.013041885783887</v>
+        <v>1.018217536391596</v>
       </c>
       <c r="E17">
-        <v>0.9912131727581964</v>
+        <v>1.013442836850954</v>
       </c>
       <c r="F17">
-        <v>0.9944165747424136</v>
+        <v>1.022100180314989</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042131238439254</v>
+        <v>1.042503404853464</v>
       </c>
       <c r="J17">
-        <v>1.019961683957546</v>
+        <v>1.024480129497287</v>
       </c>
       <c r="K17">
-        <v>1.026825043447104</v>
+        <v>1.031913511977018</v>
       </c>
       <c r="L17">
-        <v>1.005377041144078</v>
+        <v>1.027219199563628</v>
       </c>
       <c r="M17">
-        <v>1.008523215030226</v>
+        <v>1.035731500268467</v>
       </c>
       <c r="N17">
-        <v>1.010697868376064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012176867500418</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037986554995308</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033716119388741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9931399123605353</v>
+        <v>0.9974535234811112</v>
       </c>
       <c r="D18">
-        <v>1.013729895477555</v>
+        <v>1.018538007578035</v>
       </c>
       <c r="E18">
-        <v>0.9925179813544528</v>
+        <v>1.013372494128311</v>
       </c>
       <c r="F18">
-        <v>0.9957846172598701</v>
+        <v>1.021928612719447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042434777003838</v>
+        <v>1.042556800171811</v>
       </c>
       <c r="J18">
-        <v>1.020464614370553</v>
+        <v>1.024613080021068</v>
       </c>
       <c r="K18">
-        <v>1.027315768098142</v>
+        <v>1.03204424330667</v>
       </c>
       <c r="L18">
-        <v>1.006467126200036</v>
+        <v>1.026964325270344</v>
       </c>
       <c r="M18">
-        <v>1.00967651258784</v>
+        <v>1.035379268783205</v>
       </c>
       <c r="N18">
-        <v>1.01086351743185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012211873947143</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037469738282909</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033796875697673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9934590257931682</v>
+        <v>0.9974402974125106</v>
       </c>
       <c r="D19">
-        <v>1.013963639074896</v>
+        <v>1.018503085748379</v>
       </c>
       <c r="E19">
-        <v>0.9929611459491795</v>
+        <v>1.012427406912382</v>
       </c>
       <c r="F19">
-        <v>0.9962492426734035</v>
+        <v>1.020904577041894</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042537659103922</v>
+        <v>1.042483164417198</v>
       </c>
       <c r="J19">
-        <v>1.020635354098714</v>
+        <v>1.024465162205697</v>
       </c>
       <c r="K19">
-        <v>1.027482342903362</v>
+        <v>1.031947023298259</v>
       </c>
       <c r="L19">
-        <v>1.006837292982877</v>
+        <v>1.025971608569509</v>
       </c>
       <c r="M19">
-        <v>1.010068141735256</v>
+        <v>1.034309306671808</v>
       </c>
       <c r="N19">
-        <v>1.010919754850803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01215152200552</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036296966550629</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033734554402303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9920270540410495</v>
+        <v>0.9958281891534088</v>
       </c>
       <c r="D20">
-        <v>1.012914925689942</v>
+        <v>1.0174443016099</v>
       </c>
       <c r="E20">
-        <v>0.9909723290343634</v>
+        <v>1.009099014888614</v>
       </c>
       <c r="F20">
-        <v>0.9941640516354819</v>
+        <v>1.017582150567317</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042075110687867</v>
+        <v>1.042043967643228</v>
       </c>
       <c r="J20">
-        <v>1.019868817184432</v>
+        <v>1.023520879757667</v>
       </c>
       <c r="K20">
-        <v>1.026734420500819</v>
+        <v>1.031187195928191</v>
       </c>
       <c r="L20">
-        <v>1.005175798583448</v>
+        <v>1.022983733994814</v>
       </c>
       <c r="M20">
-        <v>1.008310301297724</v>
+        <v>1.031322727381287</v>
       </c>
       <c r="N20">
-        <v>1.010667281664917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011819765095036</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03340333385306</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033201254036343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9872845183026127</v>
+        <v>0.9919693928934918</v>
       </c>
       <c r="D21">
-        <v>1.009445030643685</v>
+        <v>1.015022044410401</v>
       </c>
       <c r="E21">
-        <v>0.9843811945578081</v>
+        <v>1.004805689222117</v>
       </c>
       <c r="F21">
-        <v>0.9872524172516928</v>
+        <v>1.013642533695606</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040527719136833</v>
+        <v>1.041255859676815</v>
       </c>
       <c r="J21">
-        <v>1.017323659252527</v>
+        <v>1.021806750324895</v>
       </c>
       <c r="K21">
-        <v>1.024249646510034</v>
+        <v>1.029724300946796</v>
       </c>
       <c r="L21">
-        <v>0.9996646373092827</v>
+        <v>1.019696584758021</v>
       </c>
       <c r="M21">
-        <v>1.002479389100474</v>
+        <v>1.028369972971237</v>
       </c>
       <c r="N21">
-        <v>1.009829080395434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011246046468415</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031025257780873</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032170156789526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9842329078992536</v>
+        <v>0.9895151335367068</v>
       </c>
       <c r="D22">
-        <v>1.007215163273228</v>
+        <v>1.013482857545105</v>
       </c>
       <c r="E22">
-        <v>0.9801352923301599</v>
+        <v>1.002167240261015</v>
       </c>
       <c r="F22">
-        <v>0.9827992196319633</v>
+        <v>1.011237190799001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0395203184902</v>
+        <v>1.040749043948897</v>
       </c>
       <c r="J22">
-        <v>1.015681079505252</v>
+        <v>1.020722516920883</v>
       </c>
       <c r="K22">
-        <v>1.022645028746129</v>
+        <v>1.028791866124963</v>
       </c>
       <c r="L22">
-        <v>0.9961108184708762</v>
+        <v>1.017695885611579</v>
       </c>
       <c r="M22">
-        <v>0.9987193059366071</v>
+        <v>1.026589275937143</v>
       </c>
       <c r="N22">
-        <v>1.009288205050685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010883329755424</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029615935191798</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031497323323393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9858574445918569</v>
+        <v>0.9908136461553982</v>
       </c>
       <c r="D23">
-        <v>1.008401954099134</v>
+        <v>1.0142907823629</v>
       </c>
       <c r="E23">
-        <v>0.9823961620497189</v>
+        <v>1.003566939867285</v>
       </c>
       <c r="F23">
-        <v>0.985170547859575</v>
+        <v>1.012513411754296</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04005770223876</v>
+        <v>1.04101433277492</v>
       </c>
       <c r="J23">
-        <v>1.016555966424523</v>
+        <v>1.021292887092419</v>
       </c>
       <c r="K23">
-        <v>1.023499785005548</v>
+        <v>1.029277972460537</v>
       </c>
       <c r="L23">
-        <v>0.9980035003018325</v>
+        <v>1.018756883000983</v>
       </c>
       <c r="M23">
-        <v>1.000721842771179</v>
+        <v>1.027533818511315</v>
       </c>
       <c r="N23">
-        <v>1.009576283627928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011073497313243</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030363488422315</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031831355219024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9921054245837302</v>
+        <v>0.9958440013792859</v>
       </c>
       <c r="D24">
-        <v>1.012972309142314</v>
+        <v>1.017440832507946</v>
       </c>
       <c r="E24">
-        <v>0.9910811881709314</v>
+        <v>1.008994988211387</v>
       </c>
       <c r="F24">
-        <v>0.9942781900346043</v>
+        <v>1.01746475984709</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042100483732304</v>
+        <v>1.042031749970333</v>
       </c>
       <c r="J24">
-        <v>1.01991079342812</v>
+        <v>1.023502977021649</v>
       </c>
       <c r="K24">
-        <v>1.026775382903246</v>
+        <v>1.031168437110638</v>
       </c>
       <c r="L24">
-        <v>1.005266759617755</v>
+        <v>1.022865961909257</v>
       </c>
       <c r="M24">
-        <v>1.00840653771834</v>
+        <v>1.031191962640015</v>
       </c>
       <c r="N24">
-        <v>1.010681106987041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011811552202923</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033258699694797</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033160486930319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.999071380455294</v>
+        <v>1.001498715186375</v>
       </c>
       <c r="D25">
-        <v>1.01807803276071</v>
+        <v>1.021001707248103</v>
       </c>
       <c r="E25">
-        <v>1.000752772383342</v>
+        <v>1.015123218743778</v>
       </c>
       <c r="F25">
-        <v>1.004416792624532</v>
+        <v>1.023059983447506</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044327619222168</v>
+        <v>1.043141172956416</v>
       </c>
       <c r="J25">
-        <v>1.023630036817554</v>
+        <v>1.025975746642114</v>
       </c>
       <c r="K25">
-        <v>1.030402045883555</v>
+        <v>1.033282517707363</v>
       </c>
       <c r="L25">
-        <v>1.013339413758985</v>
+        <v>1.027491216303494</v>
       </c>
       <c r="M25">
-        <v>1.016946928334137</v>
+        <v>1.035310567086271</v>
       </c>
       <c r="N25">
-        <v>1.011906230499524</v>
+        <v>1.012637525560087</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036518324615329</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034652390622262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005851312491959</v>
+        <v>1.005738908630787</v>
       </c>
       <c r="D2">
-        <v>1.02373937348942</v>
+        <v>1.023253555586976</v>
       </c>
       <c r="E2">
-        <v>1.019875271255898</v>
+        <v>1.019854970919518</v>
       </c>
       <c r="F2">
-        <v>1.027402894304214</v>
+        <v>1.027366318941133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.0439557453431</v>
+        <v>1.043777784376876</v>
       </c>
       <c r="J2">
-        <v>1.027858409288485</v>
+        <v>1.027749314434268</v>
       </c>
       <c r="K2">
-        <v>1.03487759876369</v>
+        <v>1.034398164998326</v>
       </c>
       <c r="L2">
-        <v>1.031064485775656</v>
+        <v>1.031044454595139</v>
       </c>
       <c r="M2">
-        <v>1.03849322070618</v>
+        <v>1.038457121435288</v>
       </c>
       <c r="N2">
-        <v>1.013264855833607</v>
+        <v>1.014612186928001</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039037191128541</v>
+        <v>1.039008620917313</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035731726774547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035401530308858</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021268320784217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008947915383821</v>
+        <v>1.008745689495908</v>
       </c>
       <c r="D3">
-        <v>1.025704878566787</v>
+        <v>1.025094870861516</v>
       </c>
       <c r="E3">
-        <v>1.023261104661068</v>
+        <v>1.02321496411485</v>
       </c>
       <c r="F3">
-        <v>1.030498950932698</v>
+        <v>1.030432072760799</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044524446960717</v>
+        <v>1.044286479757076</v>
       </c>
       <c r="J3">
-        <v>1.029197588165853</v>
+        <v>1.029000744659066</v>
       </c>
       <c r="K3">
-        <v>1.036019094612086</v>
+        <v>1.035416419382515</v>
       </c>
       <c r="L3">
-        <v>1.033604760962306</v>
+        <v>1.033559177952838</v>
       </c>
       <c r="M3">
-        <v>1.040755915328005</v>
+        <v>1.040689831286134</v>
       </c>
       <c r="N3">
-        <v>1.01371213023826</v>
+        <v>1.014944450909286</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040827963624823</v>
+        <v>1.040775662558377</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036536192335242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036118578604094</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021440952800948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010918566591233</v>
+        <v>1.010659676123173</v>
       </c>
       <c r="D4">
-        <v>1.026959493013044</v>
+        <v>1.026270788377489</v>
       </c>
       <c r="E4">
-        <v>1.025421445516855</v>
+        <v>1.025359174971111</v>
       </c>
       <c r="F4">
-        <v>1.032475294693178</v>
+        <v>1.032389350357109</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044878527122145</v>
+        <v>1.044602491061242</v>
       </c>
       <c r="J4">
-        <v>1.0300470388347</v>
+        <v>1.029794581669284</v>
       </c>
       <c r="K4">
-        <v>1.036743074822716</v>
+        <v>1.036062159282534</v>
       </c>
       <c r="L4">
-        <v>1.035222440061941</v>
+        <v>1.035160875857766</v>
       </c>
       <c r="M4">
-        <v>1.042196955391087</v>
+        <v>1.042111969632522</v>
       </c>
       <c r="N4">
-        <v>1.013995892153589</v>
+        <v>1.015155282856375</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041968448797265</v>
+        <v>1.04190118840103</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037049010367289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036576157082408</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02154800114881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011741648952687</v>
+        <v>1.011459210540456</v>
       </c>
       <c r="D5">
-        <v>1.027486499710607</v>
+        <v>1.026765050043112</v>
       </c>
       <c r="E5">
-        <v>1.026323455375079</v>
+        <v>1.026254522859703</v>
       </c>
       <c r="F5">
-        <v>1.033300682069529</v>
+        <v>1.03320682451969</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045025835532045</v>
+        <v>1.044733941377155</v>
       </c>
       <c r="J5">
-        <v>1.030402416681001</v>
+        <v>1.030126790945593</v>
       </c>
       <c r="K5">
-        <v>1.037047553471529</v>
+        <v>1.036334050148922</v>
       </c>
       <c r="L5">
-        <v>1.035897326161395</v>
+        <v>1.03582915441957</v>
       </c>
       <c r="M5">
-        <v>1.042798193027253</v>
+        <v>1.042705354272359</v>
       </c>
       <c r="N5">
-        <v>1.014114798893953</v>
+        <v>1.015243670786294</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042444286951527</v>
+        <v>1.042370811495461</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037271500306568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036776315979495</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021592925324426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01188224833695</v>
+        <v>1.011595800191724</v>
       </c>
       <c r="D6">
-        <v>1.027579135334194</v>
+        <v>1.026852151278819</v>
       </c>
       <c r="E6">
-        <v>1.026475599713159</v>
+        <v>1.026405536008235</v>
       </c>
       <c r="F6">
-        <v>1.03343990541245</v>
+        <v>1.033344699356797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045052502136423</v>
+        <v>1.044757917493258</v>
       </c>
       <c r="J6">
-        <v>1.030464632308128</v>
+        <v>1.030185058698111</v>
       </c>
       <c r="K6">
-        <v>1.037102811843329</v>
+        <v>1.036383799100143</v>
       </c>
       <c r="L6">
-        <v>1.03601138183984</v>
+        <v>1.035942087802634</v>
       </c>
       <c r="M6">
-        <v>1.042899821513896</v>
+        <v>1.0428056441358</v>
       </c>
       <c r="N6">
-        <v>1.014135834562943</v>
+        <v>1.015259348134577</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042524718864066</v>
+        <v>1.042450183988486</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037319349415064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036821138186443</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021601648632468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,105 +749,123 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010937227623964</v>
+        <v>1.010684255975323</v>
       </c>
       <c r="D7">
-        <v>1.026978282814408</v>
+        <v>1.026293541690348</v>
       </c>
       <c r="E7">
-        <v>1.025436508300487</v>
+        <v>1.025376412175309</v>
       </c>
       <c r="F7">
-        <v>1.032489034199348</v>
+        <v>1.032405145567258</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04488619944268</v>
+        <v>1.044612834815792</v>
       </c>
       <c r="J7">
-        <v>1.030059246420942</v>
+        <v>1.029812558338346</v>
       </c>
       <c r="K7">
-        <v>1.036758756358281</v>
+        <v>1.036081756532539</v>
       </c>
       <c r="L7">
-        <v>1.035234430239156</v>
+        <v>1.03517501553682</v>
       </c>
       <c r="M7">
-        <v>1.042207666362907</v>
+        <v>1.042124713035393</v>
       </c>
       <c r="N7">
-        <v>1.01400056874187</v>
+        <v>1.015186255328978</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041976925796038</v>
+        <v>1.041911273930356</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037080283458031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036612197454786</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021553238917098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006914217026142</v>
+        <v>1.006790610625683</v>
       </c>
       <c r="D8">
-        <v>1.024421653532396</v>
+        <v>1.023907312450253</v>
       </c>
       <c r="E8">
-        <v>1.021029762700979</v>
+        <v>1.021007830839997</v>
       </c>
       <c r="F8">
-        <v>1.028458252548959</v>
+        <v>1.028418090005372</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044157849505851</v>
+        <v>1.043968475544942</v>
       </c>
       <c r="J8">
-        <v>1.028323736170605</v>
+        <v>1.02820364888323</v>
       </c>
       <c r="K8">
-        <v>1.035280675140471</v>
+        <v>1.034772896288915</v>
       </c>
       <c r="L8">
-        <v>1.031932212309051</v>
+        <v>1.031910562426156</v>
       </c>
       <c r="M8">
-        <v>1.039266057537767</v>
+        <v>1.03922640210781</v>
       </c>
       <c r="N8">
-        <v>1.013421029687212</v>
+        <v>1.014811559801997</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039648840647434</v>
+        <v>1.039617455995639</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036039727455722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035691755808033</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021335736672465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9995507998652543</v>
+        <v>0.9996466543520751</v>
       </c>
       <c r="D9">
-        <v>1.019762553566564</v>
+        <v>1.019547395514376</v>
       </c>
       <c r="E9">
-        <v>1.013016408498538</v>
+        <v>1.013059229321919</v>
       </c>
       <c r="F9">
-        <v>1.02113613244278</v>
+        <v>1.021170409994199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04275720682143</v>
+        <v>1.042712476799971</v>
       </c>
       <c r="J9">
-        <v>1.025119430525058</v>
+        <v>1.025211896338021</v>
       </c>
       <c r="K9">
-        <v>1.032542932520517</v>
+        <v>1.032331095510175</v>
       </c>
       <c r="L9">
-        <v>1.025901775413608</v>
+        <v>1.025943924190096</v>
       </c>
       <c r="M9">
-        <v>1.033895351815737</v>
+        <v>1.033929102260647</v>
       </c>
       <c r="N9">
-        <v>1.012350465076122</v>
+        <v>1.014026425469889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03539826949963</v>
+        <v>1.035424980904202</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034100768081996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033961763438336</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020906796326563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9945014656641494</v>
+        <v>0.9947782893570852</v>
       </c>
       <c r="D10">
-        <v>1.016597518090158</v>
+        <v>1.016608335095586</v>
       </c>
       <c r="E10">
-        <v>1.007712196158719</v>
+        <v>1.007811919249715</v>
       </c>
       <c r="F10">
-        <v>1.016323162650484</v>
+        <v>1.016419377734103</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041771386702444</v>
+        <v>1.041838955785211</v>
       </c>
       <c r="J10">
-        <v>1.022934952128788</v>
+        <v>1.023200624134682</v>
       </c>
       <c r="K10">
-        <v>1.030673429015219</v>
+        <v>1.030684058882257</v>
       </c>
       <c r="L10">
-        <v>1.021943586809383</v>
+        <v>1.022041545165814</v>
       </c>
       <c r="M10">
-        <v>1.030403821754236</v>
+        <v>1.030498371297703</v>
       </c>
       <c r="N10">
-        <v>1.01162282490104</v>
+        <v>1.013610219742947</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032686734828955</v>
+        <v>1.03276156054134</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032795779170234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03281574810084</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020610798557817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9926614240929202</v>
+        <v>0.9930418825166712</v>
       </c>
       <c r="D11">
-        <v>1.015497711125087</v>
+        <v>1.01561221105918</v>
       </c>
       <c r="E11">
-        <v>1.007110969484233</v>
+        <v>1.007242449427343</v>
       </c>
       <c r="F11">
-        <v>1.016007519832465</v>
+        <v>1.016138198681631</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04150938575048</v>
+        <v>1.041632965077092</v>
       </c>
       <c r="J11">
-        <v>1.022342715576532</v>
+        <v>1.022707019825551</v>
       </c>
       <c r="K11">
-        <v>1.030133164072699</v>
+        <v>1.030245589874459</v>
       </c>
       <c r="L11">
-        <v>1.021900017835399</v>
+        <v>1.022029064114919</v>
       </c>
       <c r="M11">
-        <v>1.030633742419141</v>
+        <v>1.030762057196678</v>
       </c>
       <c r="N11">
-        <v>1.011440437082098</v>
+        <v>1.013717400766283</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03330751913181</v>
+        <v>1.033409014620976</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032446744625942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032541901039471</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020558207822935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9921190452806934</v>
+        <v>0.9925338380157838</v>
       </c>
       <c r="D12">
-        <v>1.01519033399345</v>
+        <v>1.015335232348856</v>
       </c>
       <c r="E12">
-        <v>1.007544176001826</v>
+        <v>1.007683302691021</v>
       </c>
       <c r="F12">
-        <v>1.016564197319335</v>
+        <v>1.016705452365262</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041476226182201</v>
+        <v>1.041616802408835</v>
       </c>
       <c r="J12">
-        <v>1.022260727263963</v>
+        <v>1.022657575227083</v>
       </c>
       <c r="K12">
-        <v>1.030032185053485</v>
+        <v>1.030174415072515</v>
       </c>
       <c r="L12">
-        <v>1.022528254836751</v>
+        <v>1.022664768423197</v>
       </c>
       <c r="M12">
-        <v>1.031380788210842</v>
+        <v>1.03151945114983</v>
       </c>
       <c r="N12">
-        <v>1.011424741176241</v>
+        <v>1.013813722192719</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034226361784454</v>
+        <v>1.034336005063022</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03237534874082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032491578905653</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020563871036974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9925447845381633</v>
+        <v>0.9929334740223381</v>
       </c>
       <c r="D13">
-        <v>1.015482411072952</v>
+        <v>1.015596679441646</v>
       </c>
       <c r="E13">
-        <v>1.008806637334692</v>
+        <v>1.008932915323095</v>
       </c>
       <c r="F13">
-        <v>1.017842461164554</v>
+        <v>1.017973799125869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041625870504548</v>
+        <v>1.041750327181642</v>
       </c>
       <c r="J13">
-        <v>1.022574259664838</v>
+        <v>1.022946215169043</v>
       </c>
       <c r="K13">
-        <v>1.030275825536651</v>
+        <v>1.030387998156755</v>
       </c>
       <c r="L13">
-        <v>1.023723564863574</v>
+        <v>1.023847486704573</v>
       </c>
       <c r="M13">
-        <v>1.032592715232801</v>
+        <v>1.032721658947266</v>
       </c>
       <c r="N13">
-        <v>1.011539899254687</v>
+        <v>1.01387531829982</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035462288706999</v>
+        <v>1.035564221048142</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032545110543174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03263984345496</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020617819709562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9932807188228581</v>
+        <v>0.99362405193732</v>
       </c>
       <c r="D14">
-        <v>1.015959359787981</v>
+        <v>1.016024880425862</v>
       </c>
       <c r="E14">
-        <v>1.010053361919256</v>
+        <v>1.010162280699459</v>
       </c>
       <c r="F14">
-        <v>1.019053534169083</v>
+        <v>1.019168945936124</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041813291469485</v>
+        <v>1.041911690980075</v>
       </c>
       <c r="J14">
-        <v>1.022971782010443</v>
+        <v>1.023300541555428</v>
       </c>
       <c r="K14">
-        <v>1.030603036550089</v>
+        <v>1.030667370079844</v>
       </c>
       <c r="L14">
-        <v>1.024804868259111</v>
+        <v>1.024911783571425</v>
       </c>
       <c r="M14">
-        <v>1.033641366934744</v>
+        <v>1.033754704261195</v>
       </c>
       <c r="N14">
-        <v>1.011679559470202</v>
+        <v>1.013903590835711</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03646502231836</v>
+        <v>1.036554605408986</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032777890247997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03283893348716</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020677745321678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9936737386475584</v>
+        <v>0.9939933466409424</v>
       </c>
       <c r="D15">
-        <v>1.016210537781487</v>
+        <v>1.016251194309978</v>
       </c>
       <c r="E15">
-        <v>1.010557946499108</v>
+        <v>1.010658760873457</v>
       </c>
       <c r="F15">
-        <v>1.019529661174485</v>
+        <v>1.019636967234464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041901389445386</v>
+        <v>1.041986460852216</v>
       </c>
       <c r="J15">
-        <v>1.023159388653149</v>
+        <v>1.023465546392433</v>
       </c>
       <c r="K15">
-        <v>1.030762821297733</v>
+        <v>1.030802746687843</v>
       </c>
       <c r="L15">
-        <v>1.025212627679865</v>
+        <v>1.025311602726476</v>
       </c>
       <c r="M15">
-        <v>1.034022505092586</v>
+        <v>1.034127897875021</v>
       </c>
       <c r="N15">
-        <v>1.011743822539543</v>
+        <v>1.013907096719608</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036803894828547</v>
+        <v>1.036887196272953</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032896754605035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032941109242572</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020704421313721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9957166013115789</v>
+        <v>0.9959221018405392</v>
       </c>
       <c r="D16">
-        <v>1.017485492644771</v>
+        <v>1.017406555997744</v>
       </c>
       <c r="E16">
-        <v>1.012558092575501</v>
+        <v>1.012623750102694</v>
       </c>
       <c r="F16">
-        <v>1.021344302220494</v>
+        <v>1.021413411841287</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042298129227108</v>
+        <v>1.042319570826253</v>
       </c>
       <c r="J16">
-        <v>1.024023869017123</v>
+        <v>1.024221145294532</v>
       </c>
       <c r="K16">
-        <v>1.03151028601392</v>
+        <v>1.031432708089347</v>
       </c>
       <c r="L16">
-        <v>1.026668226250056</v>
+        <v>1.026732739549969</v>
       </c>
       <c r="M16">
-        <v>1.035303005322161</v>
+        <v>1.035370937173237</v>
       </c>
       <c r="N16">
-        <v>1.012030068042408</v>
+        <v>1.013900483847221</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037777196114872</v>
+        <v>1.037830890345466</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03342842243482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033389997924285</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020814981773732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9969023921407769</v>
+        <v>0.9970513778382533</v>
       </c>
       <c r="D17">
-        <v>1.018217536391596</v>
+        <v>1.018077417049934</v>
       </c>
       <c r="E17">
-        <v>1.013442836850954</v>
+        <v>1.013492367167054</v>
       </c>
       <c r="F17">
-        <v>1.022100180314989</v>
+        <v>1.022150559397681</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042503404853464</v>
+        <v>1.04249287276593</v>
       </c>
       <c r="J17">
-        <v>1.024480129497287</v>
+        <v>1.02462334073081</v>
       </c>
       <c r="K17">
-        <v>1.031913511977018</v>
+        <v>1.031775737851889</v>
       </c>
       <c r="L17">
-        <v>1.027219199563628</v>
+        <v>1.027267890966913</v>
       </c>
       <c r="M17">
-        <v>1.035731500268467</v>
+        <v>1.035781044570291</v>
       </c>
       <c r="N17">
-        <v>1.012176867500418</v>
+        <v>1.013909589651477</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037986554995308</v>
+        <v>1.038025719378084</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033716119388741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033635381778558</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020869408269893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9974535234811112</v>
+        <v>0.9975815475782875</v>
       </c>
       <c r="D18">
-        <v>1.018538007578035</v>
+        <v>1.018375345828087</v>
       </c>
       <c r="E18">
-        <v>1.013372494128311</v>
+        <v>1.013417432346422</v>
       </c>
       <c r="F18">
-        <v>1.021928612719447</v>
+        <v>1.021972325894</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042556800171811</v>
+        <v>1.042534681729121</v>
       </c>
       <c r="J18">
-        <v>1.024613080021068</v>
+        <v>1.024736233513329</v>
       </c>
       <c r="K18">
-        <v>1.03204424330667</v>
+        <v>1.031884259917658</v>
       </c>
       <c r="L18">
-        <v>1.026964325270344</v>
+        <v>1.027008513990178</v>
       </c>
       <c r="M18">
-        <v>1.035379268783205</v>
+        <v>1.035422268494725</v>
       </c>
       <c r="N18">
-        <v>1.012211873947143</v>
+        <v>1.013891917223614</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037469738282909</v>
+        <v>1.037503736333232</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033796875697673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033699300832954</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020875345367221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9974402974125106</v>
+        <v>0.9975739309478332</v>
       </c>
       <c r="D19">
-        <v>1.018503085748379</v>
+        <v>1.018348800203339</v>
       </c>
       <c r="E19">
-        <v>1.012427406912382</v>
+        <v>1.012476315614528</v>
       </c>
       <c r="F19">
-        <v>1.020904577041894</v>
+        <v>1.020950680132673</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042483164417198</v>
+        <v>1.042465300010638</v>
       </c>
       <c r="J19">
-        <v>1.024465162205697</v>
+        <v>1.024593741332552</v>
       </c>
       <c r="K19">
-        <v>1.031947023298259</v>
+        <v>1.031795264821943</v>
       </c>
       <c r="L19">
-        <v>1.025971608569509</v>
+        <v>1.026019703966891</v>
       </c>
       <c r="M19">
-        <v>1.034309306671808</v>
+        <v>1.034354659379216</v>
       </c>
       <c r="N19">
-        <v>1.01215152200552</v>
+        <v>1.013834558912467</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036296966550629</v>
+        <v>1.036332836813757</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033734554402303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033643419251513</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020842298409219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9958281891534088</v>
+        <v>0.9960395101328327</v>
       </c>
       <c r="D20">
-        <v>1.0174443016099</v>
+        <v>1.017383194760894</v>
       </c>
       <c r="E20">
-        <v>1.009099014888614</v>
+        <v>1.009176573082694</v>
       </c>
       <c r="F20">
-        <v>1.017582150567317</v>
+        <v>1.017655728432475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042043967643228</v>
+        <v>1.042073752267191</v>
       </c>
       <c r="J20">
-        <v>1.023520879757667</v>
+        <v>1.02372396035112</v>
       </c>
       <c r="K20">
-        <v>1.031187195928191</v>
+        <v>1.031127116661119</v>
       </c>
       <c r="L20">
-        <v>1.022983733994814</v>
+        <v>1.023059960160634</v>
       </c>
       <c r="M20">
-        <v>1.031322727381287</v>
+        <v>1.03139506859334</v>
       </c>
       <c r="N20">
-        <v>1.011819765095036</v>
+        <v>1.013652473754853</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03340333385306</v>
+        <v>1.033460584765841</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033201254036343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033175328858716</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020693223280439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9919693928934918</v>
+        <v>0.9924070294250341</v>
       </c>
       <c r="D21">
-        <v>1.015022044410401</v>
+        <v>1.015197513230052</v>
       </c>
       <c r="E21">
-        <v>1.004805689222117</v>
+        <v>1.004963969703029</v>
       </c>
       <c r="F21">
-        <v>1.013642533695606</v>
+        <v>1.01379471727879</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041255859676815</v>
+        <v>1.04141264157893</v>
       </c>
       <c r="J21">
-        <v>1.021806750324895</v>
+        <v>1.022225675999582</v>
       </c>
       <c r="K21">
-        <v>1.029724300946796</v>
+        <v>1.029896572997189</v>
       </c>
       <c r="L21">
-        <v>1.019696584758021</v>
+        <v>1.019851904501175</v>
       </c>
       <c r="M21">
-        <v>1.028369972971237</v>
+        <v>1.028519374089701</v>
       </c>
       <c r="N21">
-        <v>1.011246046468415</v>
+        <v>1.013668085647799</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031025257780873</v>
+        <v>1.031143500320558</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032170156789526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032308839813887</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020469357711633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9895151335367068</v>
+        <v>0.9900951662754446</v>
       </c>
       <c r="D22">
-        <v>1.013482857545105</v>
+        <v>1.013807508584738</v>
       </c>
       <c r="E22">
-        <v>1.002167240261015</v>
+        <v>1.00237818764272</v>
       </c>
       <c r="F22">
-        <v>1.011237190799001</v>
+        <v>1.0114390375516</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040749043948897</v>
+        <v>1.040985788145409</v>
       </c>
       <c r="J22">
-        <v>1.020722516920883</v>
+        <v>1.021276333419887</v>
       </c>
       <c r="K22">
-        <v>1.028791866124963</v>
+        <v>1.029110310342638</v>
       </c>
       <c r="L22">
-        <v>1.017695885611579</v>
+        <v>1.017902678931704</v>
       </c>
       <c r="M22">
-        <v>1.026589275937143</v>
+        <v>1.026787240604073</v>
       </c>
       <c r="N22">
-        <v>1.010883329755424</v>
+        <v>1.013671269853172</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029615935191798</v>
+        <v>1.029772613348396</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031497323323393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031738056007597</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020324079752006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9908136461553982</v>
+        <v>0.9913081728588538</v>
       </c>
       <c r="D23">
-        <v>1.0142907823629</v>
+        <v>1.014529069082073</v>
       </c>
       <c r="E23">
-        <v>1.003566939867285</v>
+        <v>1.003745464577933</v>
       </c>
       <c r="F23">
-        <v>1.012513411754296</v>
+        <v>1.012685407920961</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04101433277492</v>
+        <v>1.041203988769254</v>
       </c>
       <c r="J23">
-        <v>1.021292887092419</v>
+        <v>1.021765706015282</v>
       </c>
       <c r="K23">
-        <v>1.029277972460537</v>
+        <v>1.029511817466636</v>
       </c>
       <c r="L23">
-        <v>1.018756883000983</v>
+        <v>1.018931985970501</v>
       </c>
       <c r="M23">
-        <v>1.027533818511315</v>
+        <v>1.027702593649249</v>
       </c>
       <c r="N23">
-        <v>1.011073497313243</v>
+        <v>1.013626213087092</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030363488422315</v>
+        <v>1.030497064528832</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031831355219024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032011330630745</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020396625023228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9958440013792859</v>
+        <v>0.9960549800823093</v>
       </c>
       <c r="D24">
-        <v>1.017440832507946</v>
+        <v>1.017379550298906</v>
       </c>
       <c r="E24">
-        <v>1.008994988211387</v>
+        <v>1.009072706454884</v>
       </c>
       <c r="F24">
-        <v>1.01746475984709</v>
+        <v>1.017538321450634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042031749970333</v>
+        <v>1.042061473203064</v>
       </c>
       <c r="J24">
-        <v>1.023502977021649</v>
+        <v>1.023705740618575</v>
       </c>
       <c r="K24">
-        <v>1.031168437110638</v>
+        <v>1.031108184119643</v>
       </c>
       <c r="L24">
-        <v>1.022865961909257</v>
+        <v>1.022942346737217</v>
       </c>
       <c r="M24">
-        <v>1.031191962640015</v>
+        <v>1.031264289082408</v>
       </c>
       <c r="N24">
-        <v>1.011811552202923</v>
+        <v>1.013642004106667</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033258699694797</v>
+        <v>1.033315941805012</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033160486930319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033131767084792</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02068572675316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001498715186375</v>
+        <v>1.001528164664349</v>
       </c>
       <c r="D25">
-        <v>1.021001707248103</v>
+        <v>1.020701686433753</v>
       </c>
       <c r="E25">
-        <v>1.015123218743778</v>
+        <v>1.01514558213679</v>
       </c>
       <c r="F25">
-        <v>1.023059983447506</v>
+        <v>1.023071578600797</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043141172956416</v>
+        <v>1.043054457874753</v>
       </c>
       <c r="J25">
-        <v>1.025975746642114</v>
+        <v>1.026004209192505</v>
       </c>
       <c r="K25">
-        <v>1.033282517707363</v>
+        <v>1.032986915778328</v>
       </c>
       <c r="L25">
-        <v>1.027491216303494</v>
+        <v>1.02751324557877</v>
       </c>
       <c r="M25">
-        <v>1.035310567086271</v>
+        <v>1.035321992396173</v>
       </c>
       <c r="N25">
-        <v>1.012637525560087</v>
+        <v>1.014204891121906</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036518324615329</v>
+        <v>1.036527367032328</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034652390622262</v>
+        <v>1.034456963080981</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021025614330382</v>
       </c>
     </row>
   </sheetData>
